--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\Stakeholder process\ReForest\Belgium\Dynamic-Shiny - MarcosEdited\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ED7116-9A43-4F18-AECF-B11654BAF1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08881748-4685-49DB-A62D-D6743DB00530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="315">
   <si>
     <t>variable</t>
   </si>
@@ -370,42 +370,24 @@
     <t>carbon_density_p</t>
   </si>
   <si>
-    <t>the proportion of carbon in wood biomass</t>
-  </si>
-  <si>
     <t>initial_soil_C_stock_cropland_p</t>
   </si>
   <si>
-    <t>carbon stored in the soil at the start of the simulation</t>
-  </si>
-  <si>
     <t>initial_soil_C_stock_grassland_p</t>
   </si>
   <si>
-    <t>carbon stored in the soil of grasslands at the start of the simulation</t>
-  </si>
-  <si>
     <t>soc_accrual_constant_p</t>
   </si>
   <si>
     <t>no unit</t>
   </si>
   <si>
-    <t>value to be included in the power of the exponential function used to simulate soil carbon accrual after conversion of arable land into non-arable land</t>
-  </si>
-  <si>
     <t>soc_loss_constant_p</t>
   </si>
   <si>
-    <t>value to be included in the power of the exponential function used to simulate soil carbon loss after tree removal</t>
-  </si>
-  <si>
     <t>accrual_roof_p</t>
   </si>
   <si>
-    <t>percentage of baseline stock</t>
-  </si>
-  <si>
     <t>loss_floor_p</t>
   </si>
   <si>
@@ -415,33 +397,15 @@
     <t>year</t>
   </si>
   <si>
-    <t>year in which the soil carbon pool under the wooded strip starts to experience an increase in comparison to the evolution it would have experienced if no wooded strip had been established</t>
-  </si>
-  <si>
-    <t>relative size of the soil carbon pool under the alley as compared to that under the woody strips</t>
-  </si>
-  <si>
-    <t>maximum relative size of the soil carbon pool under the alley of an agroforestry system as compared to that of an equivalent treeless field</t>
-  </si>
-  <si>
     <t>baseline_soc_change_treeless_p</t>
   </si>
   <si>
     <t>t C ha-1</t>
   </si>
   <si>
-    <t>the change in the soil carbon pool of a treeless system between the first year of the simulation and the previous year [t C/ha]</t>
-  </si>
-  <si>
     <t>treeless_soc_change_decrease_constant_p</t>
   </si>
   <si>
-    <t>the constant rate at which soil carbon change under a treeless system slows down over time</t>
-  </si>
-  <si>
-    <t>the impact of lower alley production under the alley relative to a treeless system on soc change under the alley</t>
-  </si>
-  <si>
     <t>yield_reduc_max_p</t>
   </si>
   <si>
@@ -808,9 +772,6 @@
     <t>Age of the trees at the time that they are planted [years]</t>
   </si>
   <si>
-    <t>The periodicity of clear cutting operations [years]</t>
-  </si>
-  <si>
     <t>First nuts/fruits estimate: The age of the agroforestry system at which the first nuts'/fruits' yield estimate is made [years]</t>
   </si>
   <si>
@@ -944,6 +905,78 @@
   </si>
   <si>
     <t>Annual trend of the root to shoot ratio value across the trees' lifespan (in percent).</t>
+  </si>
+  <si>
+    <t>Rotation length: The periodicity of clear cutting operations [years]</t>
+  </si>
+  <si>
+    <t>Minimum attainable carbon stock in the soil where the intervention takes place, expressed as a percentage of the baseline value [%]</t>
+  </si>
+  <si>
+    <t>Maximum attainable carbon stock in the soil where the intervention takes place, expressed as a percentage over the baseline value [%]</t>
+  </si>
+  <si>
+    <t>Value to be included in the power of the exponential function used to simulate soil carbon loss after tree removal</t>
+  </si>
+  <si>
+    <t>Value to be included in the power of the exponential function used to simulate soil carbon accrual after conversion of arable land into non-arable land</t>
+  </si>
+  <si>
+    <t>Carbon stored in the soil of grasslands at the start of the simulation</t>
+  </si>
+  <si>
+    <t>Carbon stored in the soil of croplands at the start of the simulation</t>
+  </si>
+  <si>
+    <t>The proportion of carbon in wood biomass</t>
+  </si>
+  <si>
+    <t>Relative size of the soil carbon pool under the alley as compared to that under the woody strips</t>
+  </si>
+  <si>
+    <t>Maximum relative size of the soil carbon pool under the alley of an agroforestry system as compared to that of an equivalent treeless field</t>
+  </si>
+  <si>
+    <t>The constant rate at which soil carbon change under a treeless system slows down over time</t>
+  </si>
+  <si>
+    <t>The impact of lower alley production under the alley relative to a treeless system on soc change under the alley</t>
+  </si>
+  <si>
+    <t>Year in which the soil carbon pool under the wooded strip starts to experience an increase in comparison to the evolution it would have experienced if they had not been established</t>
+  </si>
+  <si>
+    <t>Annual change of the soil carbon pool size if no agroforestry intervention is undertaken [t C/ha]</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Treeless farming</t>
+  </si>
+  <si>
+    <t>Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Fruit/Nuts production</t>
+  </si>
+  <si>
+    <t>Decision maker</t>
+  </si>
+  <si>
+    <t>Data analyst</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Market analysis</t>
+  </si>
+  <si>
+    <t>Decision maker;Data analyst</t>
   </si>
 </sst>
 </file>
@@ -1441,48 +1474,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1498,7 +1531,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1800,74 +1833,74 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1878,21 +1911,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="94.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1906,19 +1940,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1932,19 +1969,22 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1958,19 +1998,22 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1987,16 +2030,19 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2013,13 +2059,16 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2029,19 +2078,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" customWidth="1"/>
-    <col min="6" max="6" width="160.54296875" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="160.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2055,19 +2105,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2084,16 +2137,19 @@
         <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2110,16 +2166,19 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2136,16 +2195,19 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2162,18 +2224,21 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>150</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>162</v>
       </c>
       <c r="B6" s="1">
         <v>-6</v>
@@ -2188,16 +2253,19 @@
         <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2214,18 +2282,21 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1">
         <v>40</v>
@@ -2240,18 +2311,21 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -2266,18 +2340,21 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1">
         <v>0.02</v>
@@ -2289,21 +2366,24 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1">
         <v>5.0000000000000001E-3</v>
@@ -2315,21 +2395,24 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
@@ -2344,18 +2427,21 @@
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
@@ -2370,18 +2456,21 @@
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2393,21 +2482,24 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1">
         <v>0.1</v>
@@ -2422,18 +2514,21 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1">
         <v>0.5</v>
@@ -2448,18 +2543,21 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1">
         <v>0.02</v>
@@ -2471,21 +2569,24 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -2500,18 +2601,21 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1">
         <v>0.05</v>
@@ -2526,13 +2630,16 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>1E-3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2542,19 +2649,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="52.90625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2568,21 +2676,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -2594,495 +2705,498 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
@@ -3093,21 +3207,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="59.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3121,19 +3237,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3150,16 +3269,19 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3176,18 +3298,21 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3199,21 +3324,24 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3225,16 +3353,19 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3245,19 +3376,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="55.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3271,19 +3404,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3300,16 +3436,19 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3326,16 +3465,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3352,16 +3494,19 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3378,24 +3523,27 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -3404,16 +3552,19 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3430,468 +3581,471 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -3902,19 +4056,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B046A6C-AF4B-434A-AE31-2F62785AB96F}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.453125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3928,19 +4083,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3957,16 +4115,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3983,17 +4144,20 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>1E-4</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4010,16 +4174,19 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4036,464 +4203,467 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -4504,21 +4674,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF733DD-E084-451A-AEBD-87D8A1F2D1F6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="128.90625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="128.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4532,19 +4703,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4558,19 +4732,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4584,19 +4761,22 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4610,16 +4790,19 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4629,22 +4812,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="63.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4658,19 +4842,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4684,19 +4871,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4710,19 +4900,22 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4736,19 +4929,22 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4762,19 +4958,22 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4788,19 +4987,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -4814,19 +5016,22 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -4840,19 +5045,22 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -4866,19 +5074,22 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -4895,16 +5106,19 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4921,16 +5135,19 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4944,19 +5161,22 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -4973,16 +5193,19 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4999,16 +5222,19 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5025,16 +5251,19 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5051,16 +5280,19 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5074,19 +5306,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5103,16 +5338,19 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5129,16 +5367,19 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -5155,16 +5396,19 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H20">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -5181,21 +5425,24 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -5207,16 +5454,19 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5230,19 +5480,22 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -5256,21 +5509,24 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -5285,18 +5541,21 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1">
         <v>0.05</v>
@@ -5311,16 +5570,19 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H26">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -5331,20 +5593,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5358,19 +5621,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5384,19 +5650,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -5413,16 +5682,19 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5436,19 +5708,22 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -5462,19 +5737,22 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -5491,16 +5769,19 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5514,19 +5795,22 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5540,19 +5824,22 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5569,16 +5856,19 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5592,19 +5882,22 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -5618,19 +5911,22 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -5647,16 +5943,19 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -5670,19 +5969,22 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -5696,19 +5998,22 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -5725,16 +6030,19 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -5748,19 +6056,22 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -5774,19 +6085,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5803,16 +6117,19 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -5826,19 +6143,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -5852,19 +6172,22 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H20">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5881,16 +6204,19 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -5904,16 +6230,19 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H22">
         <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5923,20 +6252,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="107.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="107.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5950,19 +6280,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -5979,16 +6312,19 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -6005,16 +6341,19 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -6031,16 +6370,19 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -6057,16 +6399,19 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -6083,16 +6428,19 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -6109,16 +6457,19 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -6135,16 +6486,19 @@
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -6161,16 +6515,19 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -6187,16 +6544,19 @@
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -6213,16 +6573,19 @@
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -6239,16 +6602,19 @@
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -6265,24 +6631,27 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -6291,16 +6660,19 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6317,18 +6689,21 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1">
         <v>0.1</v>
@@ -6343,18 +6718,21 @@
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
@@ -6369,16 +6747,19 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H17">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -6392,19 +6773,22 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -6418,19 +6802,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6444,19 +6831,22 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -6470,21 +6860,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1">
         <v>0.1</v>
@@ -6499,18 +6892,21 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1">
         <v>0.1</v>
@@ -6525,13 +6921,16 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H23">
         <v>0.01</v>
+      </c>
+      <c r="I23" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6541,19 +6940,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="6" max="6" width="156.7265625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="156.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6567,21 +6968,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -6596,18 +7000,21 @@
         <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -6622,18 +7029,21 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1">
         <v>0.15</v>
@@ -6648,18 +7058,21 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
@@ -6674,18 +7087,21 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -6700,24 +7116,27 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -6726,24 +7145,27 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B8" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6752,18 +7174,21 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
@@ -6778,18 +7203,21 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1">
         <v>0.01</v>
@@ -6804,18 +7232,21 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1">
         <v>0.25</v>
@@ -6830,18 +7261,21 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H11">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
@@ -6856,18 +7290,21 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -6882,18 +7319,21 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -6908,18 +7348,21 @@
         <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -6934,18 +7377,21 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -6960,13 +7406,16 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H16">
         <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -6976,21 +7425,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18C2264-89B4-41CF-A7EB-F2121007945D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="47.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7004,19 +7454,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -7030,16 +7483,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H2">
         <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\Stakeholder process\ReForest\Belgium\Dynamic-Shiny - MarcosEdited\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08881748-4685-49DB-A62D-D6743DB00530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D71331-C3C7-4170-99AB-A785FF834B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="314">
   <si>
     <t>variable</t>
   </si>
@@ -974,9 +974,6 @@
   </si>
   <si>
     <t>Market analysis</t>
-  </si>
-  <si>
-    <t>Decision maker;Data analyst</t>
   </si>
 </sst>
 </file>
@@ -1474,48 +1471,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1531,7 +1528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1829,76 +1826,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B894F3-1BBC-4877-818A-ECEC60560258}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -1917,16 +1914,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="94.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2042,7 +2039,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2084,14 +2081,14 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="160.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="6" max="6" width="160.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2178,7 +2175,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2207,7 +2204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -2265,7 +2262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -2555,7 +2552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2584,7 +2581,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -2655,14 +2652,14 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="52.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2688,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -2720,483 +2717,483 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
@@ -3213,17 +3210,17 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="59.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3249,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3281,7 +3278,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -3378,19 +3375,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.36328125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3445,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3535,7 +3532,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3593,459 +3590,459 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -4062,14 +4059,14 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" customWidth="1"/>
+    <col min="6" max="6" width="68.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4127,7 +4124,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4157,7 +4154,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4215,455 +4212,455 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -4680,16 +4677,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="128.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="128.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4715,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +4773,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4818,17 +4815,17 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="63.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4854,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4944,7 +4941,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5031,7 +5028,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5089,7 +5086,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5147,7 +5144,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5234,7 +5231,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5321,7 +5318,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -5408,7 +5405,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5466,7 +5463,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5495,7 +5492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -5524,7 +5521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -5553,7 +5550,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5582,7 +5579,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -5599,15 +5596,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="3" width="12.54296875" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -5694,7 +5691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5868,7 +5865,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5897,7 +5894,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -5955,7 +5952,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -5984,7 +5981,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6042,7 +6039,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6100,7 +6097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6158,7 +6155,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -6258,15 +6255,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="107.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="107.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6295,7 +6292,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -6324,7 +6321,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -6353,7 +6350,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -6440,7 +6437,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -6469,7 +6466,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -6498,7 +6495,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -6527,7 +6524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -6556,7 +6553,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -6643,7 +6640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -6672,7 +6669,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6701,7 +6698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -6730,7 +6727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -6788,7 +6785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -6846,7 +6843,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -6875,7 +6872,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -6904,7 +6901,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -6946,15 +6943,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="156.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="156.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7012,7 +7009,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -7041,7 +7038,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -7070,7 +7067,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -7099,7 +7096,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -7157,7 +7154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -7215,7 +7212,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -7244,7 +7241,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -7273,7 +7270,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -7302,7 +7299,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -7331,7 +7328,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -7360,7 +7357,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -7389,7 +7386,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -7431,16 +7428,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="47.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\Stakeholder process\ReForest\Belgium\Dynamic-Shiny - MarcosEdited\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D71331-C3C7-4170-99AB-A785FF834B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1967C82-C3E8-44B6-BF04-B52F2A7643EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="323">
   <si>
     <t>variable</t>
   </si>
@@ -974,6 +974,33 @@
   </si>
   <si>
     <t>Market analysis</t>
+  </si>
+  <si>
+    <t>Tree growth model</t>
+  </si>
+  <si>
+    <t>header4</t>
+  </si>
+  <si>
+    <t>horizontal line</t>
+  </si>
+  <si>
+    <t>Walnut yield model</t>
+  </si>
+  <si>
+    <t>Tree impact on alley crop yield</t>
+  </si>
+  <si>
+    <t>Tree impact on damage reduction</t>
+  </si>
+  <si>
+    <t>Root-to-shoot ratio dynamics</t>
+  </si>
+  <si>
+    <t>Soil carbon dynamics</t>
+  </si>
+  <si>
+    <t>break</t>
   </si>
 </sst>
 </file>
@@ -1471,48 +1498,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1528,7 +1555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1826,76 +1853,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B894F3-1BBC-4877-818A-ECEC60560258}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -1914,16 +1941,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="94.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1979,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1981,7 +2008,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2010,7 +2037,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2039,7 +2066,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2075,20 +2102,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" customWidth="1"/>
-    <col min="6" max="6" width="160.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="160.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2144,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2146,131 +2173,68 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="G3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="F4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B6" s="1">
         <v>0.12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>0.36</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>288</v>
       </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6">
         <v>1E-3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-      <c r="I4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2279,363 +2243,502 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
         <v>138</v>
       </c>
       <c r="H7">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="G9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="G10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12">
+        <v>1E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="G13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="F14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="G15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B16" s="1">
         <v>40</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C16" s="1">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F16" t="s">
         <v>297</v>
       </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="1">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1">
-        <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10">
-        <v>1E-3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>1E-4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="1">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
-      <c r="I15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1">
-        <v>0.02</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1">
-        <v>0.6</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G17" t="s">
         <v>138</v>
       </c>
       <c r="H17">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="C18" s="1">
-        <v>1.8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
         <v>138</v>
       </c>
       <c r="H18">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="I18" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19">
+        <v>1E-4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="G22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="G23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25">
+        <v>0.01</v>
+      </c>
+      <c r="I25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26">
+        <v>0.01</v>
+      </c>
+      <c r="I26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27">
+        <v>1E-3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28">
+        <v>0.01</v>
+      </c>
+      <c r="I28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B29" s="1">
         <v>0.05</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C29" s="1">
         <v>0.95</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F29" t="s">
         <v>302</v>
       </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19">
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29">
         <v>1E-3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I29" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2652,14 +2755,14 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="52.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2791,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -2717,483 +2820,483 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
@@ -3210,17 +3313,17 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="59.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3352,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3278,7 +3381,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3307,7 +3410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3336,7 +3439,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -3379,15 +3482,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.36328125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3519,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3445,7 +3548,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3474,7 +3577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3503,7 +3606,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3532,7 +3635,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +3664,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3590,459 +3693,459 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -4059,14 +4162,14 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4095,7 +4198,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4154,7 +4257,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4212,455 +4315,455 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -4677,16 +4780,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="128.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="128.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +4818,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4744,7 +4847,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4773,7 +4876,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4811,21 +4914,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="63.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +4957,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4883,7 +4986,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4912,7 +5015,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4941,7 +5044,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4970,7 +5073,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4999,7 +5102,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5028,7 +5131,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5057,7 +5160,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5086,7 +5189,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5115,7 +5218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5144,7 +5247,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5173,7 +5276,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5202,7 +5305,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5231,7 +5334,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5260,7 +5363,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5289,7 +5392,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5318,7 +5421,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5347,7 +5450,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5376,7 +5479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -5405,7 +5508,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -5434,7 +5537,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5463,7 +5566,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5492,7 +5595,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -5521,7 +5624,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -5550,7 +5653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5579,7 +5682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -5596,15 +5699,15 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5736,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5662,7 +5765,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -5691,7 +5794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5720,7 +5823,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -5749,7 +5852,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -5778,7 +5881,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5807,7 +5910,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5836,7 +5939,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5865,7 +5968,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5894,7 +5997,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -5923,7 +6026,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -5952,7 +6055,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -5981,7 +6084,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -6010,7 +6113,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6039,7 +6142,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6068,7 +6171,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6097,7 +6200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6126,7 +6229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6155,7 +6258,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -6184,7 +6287,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6213,7 +6316,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -6249,21 +6352,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="107.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="107.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6292,111 +6395,48 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="G2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="G4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B5" s="1">
         <v>105</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="1">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>243</v>
       </c>
       <c r="G5" t="s">
         <v>138</v>
@@ -6408,27 +6448,27 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -6437,53 +6477,53 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
         <v>138</v>
@@ -6495,140 +6535,96 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0.27</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
       </c>
       <c r="H9">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>248</v>
-      </c>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="G11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="G13" t="s">
         <v>138</v>
@@ -6637,143 +6633,80 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
-        <v>40</v>
+        <v>0.09</v>
       </c>
       <c r="C14" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
         <v>138</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="1">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>252</v>
-      </c>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>0.01</v>
-      </c>
-      <c r="I16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>267</v>
-      </c>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17">
-        <v>0.01</v>
-      </c>
-      <c r="I17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
         <v>138</v>
@@ -6785,148 +6718,394 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="G24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="G25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26">
+        <v>0.01</v>
+      </c>
+      <c r="I26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+      <c r="I27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B29" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C29" s="1">
         <v>130</v>
       </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>173</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F29" t="s">
         <v>258</v>
       </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B30" s="1">
         <v>70</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C30" s="1">
         <v>320</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>176</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F30" t="s">
         <v>259</v>
       </c>
-      <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B31" s="1">
         <v>400</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C31" s="1">
         <v>1300</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F31" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B32" s="1">
         <v>0.1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C32" s="1">
         <v>0.6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E32" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F32" t="s">
         <v>254</v>
       </c>
-      <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22">
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32">
         <v>0.01</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I32" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B33" s="1">
         <v>0.1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C33" s="1">
         <v>0.9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F33" t="s">
         <v>256</v>
       </c>
-      <c r="G23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23">
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33">
         <v>0.01</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I33" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6937,21 +7116,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="156.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="156.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6980,7 +7159,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -7009,7 +7188,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -7038,143 +7217,80 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="G4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="G6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B7" s="1">
         <v>0.15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="1">
         <v>0.75</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>262</v>
       </c>
-      <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7">
         <v>1E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -7183,240 +7299,376 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>0.3</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H9">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
         <v>138</v>
       </c>
       <c r="H10">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>0.95</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
         <v>138</v>
       </c>
       <c r="H11">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="G13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.1</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14">
         <v>0.01</v>
-      </c>
-      <c r="I12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G15" t="s">
         <v>138</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
+        <v>0.95</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G16" t="s">
         <v>138</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I16" t="s">
         <v>307</v>
       </c>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="G17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="G19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20">
+        <v>0.01</v>
+      </c>
+      <c r="I20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7428,16 +7680,16 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="47.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7466,7 +7718,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1967C82-C3E8-44B6-BF04-B52F2A7643EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B67C2-9E27-4774-9AF6-DEC59D8B7174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="323">
   <si>
     <t>variable</t>
   </si>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,6 +2179,9 @@
       <c r="G3" t="s">
         <v>322</v>
       </c>
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -2189,6 +2192,9 @@
       <c r="G4" t="s">
         <v>315</v>
       </c>
+      <c r="I4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -2196,6 +2202,9 @@
       <c r="G5" t="s">
         <v>316</v>
       </c>
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2290,6 +2299,9 @@
       <c r="G9" t="s">
         <v>316</v>
       </c>
+      <c r="I9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2297,6 +2309,9 @@
       <c r="G10" t="s">
         <v>322</v>
       </c>
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2362,6 +2377,9 @@
       <c r="G13" t="s">
         <v>322</v>
       </c>
+      <c r="I13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -2372,6 +2390,9 @@
       <c r="G14" t="s">
         <v>315</v>
       </c>
+      <c r="I14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -2379,6 +2400,9 @@
       <c r="G15" t="s">
         <v>316</v>
       </c>
+      <c r="I15" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2560,12 +2584,18 @@
       <c r="G22" t="s">
         <v>316</v>
       </c>
+      <c r="I22" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="G23" t="s">
         <v>322</v>
+      </c>
+      <c r="I23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6354,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6401,6 +6431,9 @@
       <c r="G2" t="s">
         <v>322</v>
       </c>
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -6411,6 +6444,9 @@
       <c r="G3" t="s">
         <v>315</v>
       </c>
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -6418,6 +6454,9 @@
       <c r="G4" t="s">
         <v>316</v>
       </c>
+      <c r="I4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6570,6 +6609,9 @@
       <c r="G10" t="s">
         <v>316</v>
       </c>
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -6577,6 +6619,9 @@
       <c r="G11" t="s">
         <v>322</v>
       </c>
+      <c r="I11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6671,6 +6716,9 @@
       <c r="G15" t="s">
         <v>322</v>
       </c>
+      <c r="I15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -6681,6 +6729,9 @@
       <c r="G16" t="s">
         <v>315</v>
       </c>
+      <c r="I16" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -6688,6 +6739,9 @@
       <c r="G17" t="s">
         <v>316</v>
       </c>
+      <c r="I17" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6869,12 +6923,18 @@
       <c r="G24" t="s">
         <v>316</v>
       </c>
+      <c r="I24" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="G25" t="s">
         <v>322</v>
+      </c>
+      <c r="I25" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7118,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,6 +7283,9 @@
       <c r="G4" t="s">
         <v>322</v>
       </c>
+      <c r="I4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -7233,6 +7296,9 @@
       <c r="G5" t="s">
         <v>315</v>
       </c>
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -7240,6 +7306,9 @@
       <c r="G6" t="s">
         <v>316</v>
       </c>
+      <c r="I6" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7392,6 +7461,9 @@
       <c r="G12" t="s">
         <v>316</v>
       </c>
+      <c r="I12" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -7399,6 +7471,9 @@
       <c r="G13" t="s">
         <v>322</v>
       </c>
+      <c r="I13" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -7493,6 +7568,9 @@
       <c r="G17" t="s">
         <v>322</v>
       </c>
+      <c r="I17" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -7503,6 +7581,9 @@
       <c r="G18" t="s">
         <v>315</v>
       </c>
+      <c r="I18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -7510,6 +7591,9 @@
       <c r="G19" t="s">
         <v>316</v>
       </c>
+      <c r="I19" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -7660,10 +7744,16 @@
       <c r="G25" t="s">
         <v>316</v>
       </c>
+      <c r="I25" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>322</v>
+      </c>
+      <c r="I26" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B67C2-9E27-4774-9AF6-DEC59D8B7174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EFF3C-A2EA-40D1-AE25-9046D3C4AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="336">
   <si>
     <t>variable</t>
   </si>
@@ -1001,6 +1001,45 @@
   </si>
   <si>
     <t>break</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>bullseye</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>cart-shopping</t>
+  </si>
+  <si>
+    <t>people-group</t>
+  </si>
+  <si>
+    <t>seedling</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>person-chalkboard</t>
+  </si>
+  <si>
+    <t>check-double</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>square-poll-vertical</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B894F3-1BBC-4877-818A-ECEC60560258}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,69 +1901,108 @@
     <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2104,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1EFF3C-A2EA-40D1-AE25-9046D3C4AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF53BD4-D5AF-4AE1-9595-9DD5608C8F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="346">
   <si>
     <t>variable</t>
   </si>
@@ -961,9 +961,6 @@
     <t>Silviculture</t>
   </si>
   <si>
-    <t>Fruit/Nuts production</t>
-  </si>
-  <si>
     <t>Decision maker</t>
   </si>
   <si>
@@ -973,9 +970,6 @@
     <t>Soil science</t>
   </si>
   <si>
-    <t>Market analysis</t>
-  </si>
-  <si>
     <t>Tree growth model</t>
   </si>
   <si>
@@ -1040,6 +1034,42 @@
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>Agroforestry farming;Silviculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agroforestry farming;Policy analysis </t>
+  </si>
+  <si>
+    <t>Agroforestry farming;Fruit/Nuts production</t>
+  </si>
+  <si>
+    <t>Market analysis;Treeless farming</t>
+  </si>
+  <si>
+    <t>Silviculture;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Fruit/Nuts production;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Fruit/Nuts production;Agroforestry farming;Data analyst</t>
+  </si>
+  <si>
+    <t>Fruits/Nuts production;Market analysis;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Silviculture;Market analysis;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Policy analysis;Agroforestry farming</t>
+  </si>
+  <si>
+    <t>Market analysis;Policy analysis</t>
+  </si>
+  <si>
+    <t>Soil science;Policy analysis ;Data analyst</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1923,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1936,7 @@
         <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1944,7 @@
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1952,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +1960,7 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1968,7 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1976,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1984,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1992,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +2000,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +2008,7 @@
         <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,7 +2016,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1994,7 +2024,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +2032,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2015,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2112,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2141,7 +2171,7 @@
         <v>1E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2170,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2182,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,33 +2285,33 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2310,7 +2340,7 @@
         <v>1E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2339,7 +2369,7 @@
         <v>0.01</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2368,27 +2398,27 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,33 +2483,33 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="G15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2537,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2566,7 +2596,7 @@
         <v>1E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2595,7 +2625,7 @@
         <v>1E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2624,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2653,27 +2683,27 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2702,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,7 +2761,7 @@
         <v>0.01</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2760,7 +2790,7 @@
         <v>0.01</v>
       </c>
       <c r="I26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2789,7 +2819,7 @@
         <v>1E-3</v>
       </c>
       <c r="I27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2818,7 +2848,7 @@
         <v>0.01</v>
       </c>
       <c r="I28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2847,7 +2877,7 @@
         <v>1E-3</v>
       </c>
       <c r="I29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2859,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3417,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3458,7 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="59.42578125" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,7 +3516,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3515,7 +3545,7 @@
         <v>1E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3586,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3682,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3769,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B046A6C-AF4B-434A-AE31-2F62785AB96F}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,7 +4362,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,7 +4391,7 @@
         <v>1E-4</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -4391,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,7 +4450,7 @@
         <v>1E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4884,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF733DD-E084-451A-AEBD-87D8A1F2D1F6}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5010,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5022,8 +5052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5352,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5613,7 +5643,7 @@
         <v>1E-3</v>
       </c>
       <c r="I20" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,7 +5672,7 @@
         <v>1E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5671,7 +5701,7 @@
         <v>0.01</v>
       </c>
       <c r="I22" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5700,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5729,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5758,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5787,7 +5817,7 @@
         <v>1E-3</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6102,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6189,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6276,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6363,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6450,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6462,7 +6492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -6507,33 +6537,33 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6562,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6591,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6620,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6649,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6678,27 +6708,27 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6727,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6756,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6785,40 +6815,40 @@
         <v>1E-3</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="G15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I15" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I16" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I17" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6847,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6876,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6905,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6934,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6963,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6992,27 +7022,27 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="G24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I24" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="G25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I25" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7041,7 +7071,7 @@
         <v>0.01</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -7070,7 +7100,7 @@
         <v>0.01</v>
       </c>
       <c r="I27" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7128,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7157,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7186,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7215,7 +7245,7 @@
         <v>0.01</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7244,7 +7274,7 @@
         <v>0.01</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7389,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I4" t="s">
         <v>307</v>
@@ -7369,10 +7399,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
         <v>307</v>
@@ -7382,7 +7412,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I6" t="s">
         <v>307</v>
@@ -7537,7 +7567,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I12" t="s">
         <v>307</v>
@@ -7547,7 +7577,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I13" t="s">
         <v>307</v>
@@ -7644,7 +7674,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I17" t="s">
         <v>307</v>
@@ -7654,10 +7684,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s">
         <v>307</v>
@@ -7667,7 +7697,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I19" t="s">
         <v>307</v>
@@ -7820,7 +7850,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I25" t="s">
         <v>307</v>
@@ -7828,7 +7858,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I26" t="s">
         <v>307</v>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF53BD4-D5AF-4AE1-9595-9DD5608C8F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B87DA-8B41-4E8C-A3AD-4D8C92D3D52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="464">
   <si>
     <t>variable</t>
   </si>
@@ -571,189 +571,39 @@
     <t>€/N trees</t>
   </si>
   <si>
-    <t>Size of the farm [ha]</t>
-  </si>
-  <si>
-    <t>Total area occupied by the tree strips [ha]</t>
-  </si>
-  <si>
-    <t>Total area occupied by field boundary elements [ha]</t>
-  </si>
-  <si>
-    <t>Number of trees in the tree strips (sum of all strips) [U]</t>
-  </si>
-  <si>
-    <t>Timescope of interest [years]</t>
-  </si>
-  <si>
-    <t>Annual rate of utility loss [%]</t>
-  </si>
-  <si>
-    <t>Shall crop rotation alternative 1 be used?</t>
-  </si>
-  <si>
-    <t>Shall crop rotation alternative 1 be used in the agroforestry alternative 1?</t>
-  </si>
-  <si>
     <t>Number of model simulation runs</t>
   </si>
   <si>
-    <t>Coefficient of variation of the variables of the model [%]</t>
-  </si>
-  <si>
-    <t>Costs of tree seeds, seedlings or saplings [€/U]</t>
-  </si>
-  <si>
-    <t>Cost of hedgrow tree seeds, seedlings or saplings [€]</t>
-  </si>
-  <si>
-    <t>Costs of other planting and tree protection materials [€]</t>
-  </si>
-  <si>
-    <t>Wage per working hour [€/h]</t>
-  </si>
-  <si>
-    <t>Time spent on planning and designing the agroforestry system [h]</t>
-  </si>
-  <si>
-    <t>Relative working-time difference, on an equivalent cropping area-basis, between managing arable crops in agroforestry and treeless fields (values higher than 1 mean more time and values lower than 1 mean less time required in the agroforestry system)</t>
-  </si>
-  <si>
-    <t>Worker-hours required to prepare the field for the establishment of the woody strips (e.g. harrowing previous to tree planting) [h/ha]</t>
-  </si>
-  <si>
-    <t>Worker-hours spent on establishing boundary elements (hedgerows, grass strips, etc.) [h]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for potato production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for wheat production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for field beans production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for celeriac production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for carrot production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for maize production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for leek production in a treeless field [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Costs of weed-control interventions during the establishment of the woody stands [h/ha]</t>
-  </si>
-  <si>
     <t>h/ha/year</t>
   </si>
   <si>
     <t>h/year</t>
   </si>
   <si>
-    <t>Time spent on fullfilling agroforestry-specific bureaucratic processes (h/year)</t>
-  </si>
-  <si>
-    <t>Worker-hours required to plant the trees [h/U]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for the maintenance of the woody strips' understory [h/ha/year]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for pruning trees aged up to 7 years [h/tree]</t>
-  </si>
-  <si>
-    <t>Worker-hours required for pruning trees aged 8 years or more [h/tree]</t>
-  </si>
-  <si>
-    <t>Worker-hours required during the final timber harvest to log one tree, as a function of its size [h/m3]</t>
-  </si>
-  <si>
-    <t>Worker-hours required to remove stumps from the field after the final timber harvest [h/U]</t>
-  </si>
-  <si>
-    <t>Worker-hours required to chop the stump biomass remaining on the field after the final timber harvest [h/ha]</t>
-  </si>
-  <si>
-    <t>Costs of harvesting walnuts [€/ha]</t>
-  </si>
-  <si>
-    <t>Costs of grading and packing walnuts [€/ha]</t>
-  </si>
-  <si>
-    <t>Voluntary extra time threshold: Maximum additional worker-hours per year, that the farmer(s) will dedicate to the agroforestry intervention without fully considering it a cost [h]</t>
-  </si>
-  <si>
-    <t>Proportion of the "Voluntary extra time threshold" that the farmer(s) will dedicate to the agroforestry intervention without fully considering it a cost [ratio]</t>
-  </si>
-  <si>
-    <t>Costs of seed, fertiliser, pesticide, insurance, fixed+variable machine cost for the production of maize [€/ha]</t>
-  </si>
-  <si>
     <t>Marketable maize yield [t/ha]</t>
   </si>
   <si>
-    <t>Farmgate maize price [€/t]</t>
-  </si>
-  <si>
     <t>Marketable carrot yield [t/ha]</t>
   </si>
   <si>
     <t>Farmgate carrot price [€/t]</t>
   </si>
   <si>
-    <t>Input costs for the production of celeriac [€/ha]</t>
-  </si>
-  <si>
     <t>Marketable celeriac yield [t/ha]</t>
   </si>
   <si>
-    <t>Farmgate celeriac price [€/t]</t>
-  </si>
-  <si>
-    <t>Input costs for the production of potatoes [€/ha]</t>
-  </si>
-  <si>
     <t>Input costs for the production of carrots [€/ha]</t>
   </si>
   <si>
-    <t>Farmgate potato price [€/t]</t>
-  </si>
-  <si>
-    <t>Marketable potato yield [t/ha]</t>
-  </si>
-  <si>
-    <t>Input costs for the production of wheat [€/ha]</t>
-  </si>
-  <si>
     <t>Marketable wheat yield [t/ha]</t>
   </si>
   <si>
-    <t>Farmgate wheat price [€/t]</t>
-  </si>
-  <si>
-    <t>Input costs for the production of field beans [€/ha]</t>
-  </si>
-  <si>
     <t>Marketable field beans yield [t/ha]</t>
   </si>
   <si>
-    <t>Farmgate field beans price [€/t]</t>
-  </si>
-  <si>
-    <t>Input costs for the production of leek [€/ha]</t>
-  </si>
-  <si>
     <t>Marketable leek yield [t/ha]</t>
   </si>
   <si>
-    <t>Farmgate leek price [€/t]</t>
-  </si>
-  <si>
     <t>Maximum wood volume achievable by the stand composed by the trees of the woody rows between the alleys [m3/ha]</t>
   </si>
   <si>
@@ -790,9 +640,6 @@
     <t>Yield failure probability for nuts/fruits: Annual probability that the marketable yield of nuts/fruits is considerably reduced due to the occurrence of damaging events [ratio]</t>
   </si>
   <si>
-    <t>Coefficient of variation of the nuts/fruits yield relative to the expected yield at any given year [%]</t>
-  </si>
-  <si>
     <t>Farmgate price of fruits/nuts [€/kg]</t>
   </si>
   <si>
@@ -811,18 +658,12 @@
     <t>Low quality wood price: Farmgate price of woody biomass sold for bioenergy purposes, pulp or biochar [€/t]</t>
   </si>
   <si>
-    <t>Sawnwood price: Farmgate price of sawnwood [€/m3]</t>
-  </si>
-  <si>
     <t>Operational restriction (leek): Proportion of the crop alley area over which leek cannot be produced due to operational restrictions imposed by trees [ratio]</t>
   </si>
   <si>
     <t>First year in which "Operational restriction (leek)" must be applied</t>
   </si>
   <si>
-    <t>Maximum yield reduction: Maximum proportion of the arable crops' yield in a treeless field which cannot be attained in agroforestry due to the competition imposed by trees [ratio]</t>
-  </si>
-  <si>
     <t>First yield reduction estimate: The age of the agroforestry system at which the first yield reduction estimate is made [years]</t>
   </si>
   <si>
@@ -892,9 +733,6 @@
     <t>Environmental benefit of groundwater recharge [€/ha]</t>
   </si>
   <si>
-    <t>The wood density of the trees planted in the woody strips [t/m3]</t>
-  </si>
-  <si>
     <t>Coefficient of variability of the root-to-shoot ratio</t>
   </si>
   <si>
@@ -904,18 +742,9 @@
     <t>Root-to-shoot ratio saplings: Ratio of root biomass compared to aboveground woody biomass in 1-year's old trees</t>
   </si>
   <si>
-    <t>Annual trend of the root to shoot ratio value across the trees' lifespan (in percent).</t>
-  </si>
-  <si>
     <t>Rotation length: The periodicity of clear cutting operations [years]</t>
   </si>
   <si>
-    <t>Minimum attainable carbon stock in the soil where the intervention takes place, expressed as a percentage of the baseline value [%]</t>
-  </si>
-  <si>
-    <t>Maximum attainable carbon stock in the soil where the intervention takes place, expressed as a percentage over the baseline value [%]</t>
-  </si>
-  <si>
     <t>Value to be included in the power of the exponential function used to simulate soil carbon loss after tree removal</t>
   </si>
   <si>
@@ -958,9 +787,6 @@
     <t>Agroforestry farming</t>
   </si>
   <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
     <t>Decision maker</t>
   </si>
   <si>
@@ -1070,6 +896,534 @@
   </si>
   <si>
     <t>Soil science;Policy analysis ;Data analyst</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Timescope [years]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timescope of interest </t>
+  </si>
+  <si>
+    <t>Discount rate [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual rate of the utility loss of cash liquidity </t>
+  </si>
+  <si>
+    <t>Crop rotation alternative</t>
+  </si>
+  <si>
+    <t>Which crop rotation shall be used (currently only one crop rotation implemented)</t>
+  </si>
+  <si>
+    <t>Agroforestry alternative</t>
+  </si>
+  <si>
+    <t>Which tree stand shall be used (currently only one crop rotation implemented)</t>
+  </si>
+  <si>
+    <t>Model iterations</t>
+  </si>
+  <si>
+    <t>General coefficient of variation [%]</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of the variables of the model</t>
+  </si>
+  <si>
+    <t>Intervention's surface area [ha]</t>
+  </si>
+  <si>
+    <t>Size of the area over which the intervention takes place</t>
+  </si>
+  <si>
+    <t>Tree row area [ha]</t>
+  </si>
+  <si>
+    <t>Total area occupied by the tree rows</t>
+  </si>
+  <si>
+    <t>Total number of trees in the tree rows [U]</t>
+  </si>
+  <si>
+    <t>Number of trees in the tree rows (sum of all strips)</t>
+  </si>
+  <si>
+    <t>Boundary elements area [ha]</t>
+  </si>
+  <si>
+    <t>Total area occupied by field boundary elements</t>
+  </si>
+  <si>
+    <t>Tree plant material costs (tree rows) [€/U]</t>
+  </si>
+  <si>
+    <t>Costs of tree seeds, seedlings or saplings</t>
+  </si>
+  <si>
+    <t>Tree/Shrub plant material costs (hedgerows) [€]</t>
+  </si>
+  <si>
+    <t>Cost of hedgrow tree seeds, seedlings or saplings</t>
+  </si>
+  <si>
+    <t>Other (non-plant) planting material costs [€]</t>
+  </si>
+  <si>
+    <t>Costs of other planting (e.g. tools, compost...) and tree protection materials</t>
+  </si>
+  <si>
+    <t>Labor costs per working hour [€/h]</t>
+  </si>
+  <si>
+    <t>Labor costs per working hour</t>
+  </si>
+  <si>
+    <t>Worker-hours - Leek [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for leek production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Maize [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for maize production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Carrot [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for carrot production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Celeriac [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for celeriac production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Potatoes [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for potato production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Wheat [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for wheat production in a treeless field</t>
+  </si>
+  <si>
+    <t>Worker-hours - Beans [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for field beans production in a treeless field</t>
+  </si>
+  <si>
+    <t>Working-time arable crops in agroforestry vs. treeless field [ratio]</t>
+  </si>
+  <si>
+    <t>Relative working-time difference, on an "equivalent cultivated area" basis, between managing arable crops in agroforestry and treeless fields. Values higher than 1 mean more time required in an agroforestry field, and values lower than 1 mean less time required in an agroforestry field.</t>
+  </si>
+  <si>
+    <t>Worker-hours - Planning and design [h]</t>
+  </si>
+  <si>
+    <t>Time spent on planning and designing the agroforestry system</t>
+  </si>
+  <si>
+    <t>Worker-hours - Bureaucratic requirements [h/year]</t>
+  </si>
+  <si>
+    <t>Time spent on fullfilling agroforestry-specific bureaucratic processes</t>
+  </si>
+  <si>
+    <t>Worker-hours - Field preparation [h/ha]</t>
+  </si>
+  <si>
+    <t>Worker-hours required to prepare the field for the establishment of the woody strips (e.g. harrowing previous to tree planting)</t>
+  </si>
+  <si>
+    <t>Worker-hours - Tree planting (tree rows) [h/unit]</t>
+  </si>
+  <si>
+    <t>Worker-hours required to plant the trees</t>
+  </si>
+  <si>
+    <t>Worker-hours boundary elements establishment [h]</t>
+  </si>
+  <si>
+    <t>Worker-hours spent on establishing boundary elements (hedgerows, grass strips, etc.)</t>
+  </si>
+  <si>
+    <t>Worker-hours weed removal before tree planting [h/ha]</t>
+  </si>
+  <si>
+    <t>Worker-hours spent on weed-control interventions during the establishment of the woody stands</t>
+  </si>
+  <si>
+    <t>Worker-hours tree row understory maintenance  [h/ha/year]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for the maintenance of the woody strips' understory</t>
+  </si>
+  <si>
+    <t>Worker-hours small tree pruning [h/unit]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for pruning trees aged up to 7 years</t>
+  </si>
+  <si>
+    <t>Worker-hours large tree pruning [h/unit]</t>
+  </si>
+  <si>
+    <t>Worker-hours required for pruning trees aged 8 years or more</t>
+  </si>
+  <si>
+    <t>Worker-hours tree felling [h/m3]</t>
+  </si>
+  <si>
+    <t>Worker-hours required during the final timber harvest to log one tree, as a function of its size</t>
+  </si>
+  <si>
+    <t>Worker-hours stump grubbing [h/unit]</t>
+  </si>
+  <si>
+    <t>Worker-hours required to grub stumps out of the soil after the final timber harvest</t>
+  </si>
+  <si>
+    <t>Worker-hours stump chopping [h/ha]</t>
+  </si>
+  <si>
+    <t>Worker-hours required to chop the stump biomass remaining on the field after the final timber harvest</t>
+  </si>
+  <si>
+    <t>Fruit/nuts harvest costs [€/ha]</t>
+  </si>
+  <si>
+    <t>Costs of harvesting fruits/nuts</t>
+  </si>
+  <si>
+    <t>Fruit/nuts grading and packing costs [€/ha]</t>
+  </si>
+  <si>
+    <t>Costs of grading and packing fruits/nuts</t>
+  </si>
+  <si>
+    <t>Voluntary extra time threshold [h]</t>
+  </si>
+  <si>
+    <t>Voluntary extra time threshold: aximum additional worker-hours per year, that the farmer(s) will dedicate to the agroforestry intervention without fully considering it a cost</t>
+  </si>
+  <si>
+    <t>Sense of purpose [ratio]</t>
+  </si>
+  <si>
+    <t>Proportion of te "Voluntary extra time threshold" that the farmer(s) will dedicate to the agroforestry intervention without fully considering it a cost</t>
+  </si>
+  <si>
+    <t>Maize production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of maize [€/ha]</t>
+  </si>
+  <si>
+    <t>Maize yield</t>
+  </si>
+  <si>
+    <t>Farmgate price of maize</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from maize sales [€/t]</t>
+  </si>
+  <si>
+    <t>Carrot production mean annual (fixed+variable) costs</t>
+  </si>
+  <si>
+    <t>Carrot yield</t>
+  </si>
+  <si>
+    <t>Carrot price</t>
+  </si>
+  <si>
+    <t>Celeriac production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of celeriac [€/ha]</t>
+  </si>
+  <si>
+    <t>Celeriac yield</t>
+  </si>
+  <si>
+    <t>Farmgate price of celeriac</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from celeriac sales [€/t]</t>
+  </si>
+  <si>
+    <t>Potatoes production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of potatoes [€/ha]</t>
+  </si>
+  <si>
+    <t>Potatoes yield</t>
+  </si>
+  <si>
+    <t>Marketable potatoes yield [t/ha]</t>
+  </si>
+  <si>
+    <t>Farmgate price of potatoes</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from potatoes sales [€/t]</t>
+  </si>
+  <si>
+    <t>Wheat production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of wheat [€/ha]</t>
+  </si>
+  <si>
+    <t>Wheat yield</t>
+  </si>
+  <si>
+    <t>Farmgate price of Wheat</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from wheat sales [€/t]</t>
+  </si>
+  <si>
+    <t>Field beans production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of field beans [€/ha]</t>
+  </si>
+  <si>
+    <t>Field beans yield</t>
+  </si>
+  <si>
+    <t>Farmgate price of field beans</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from field beans sales [€/t]</t>
+  </si>
+  <si>
+    <t>Leek production costs</t>
+  </si>
+  <si>
+    <t>Mean annual fixed+variable costs of seed, fertiliser, pesticide, insurance and machinery for the production of leek [€/ha]</t>
+  </si>
+  <si>
+    <t>Leek yield</t>
+  </si>
+  <si>
+    <t>Farmgate price of leek</t>
+  </si>
+  <si>
+    <t>Income perceived by the farmer from leek sales [€/t]</t>
+  </si>
+  <si>
+    <t>Maximum wood volume</t>
+  </si>
+  <si>
+    <t>First volume estimate</t>
+  </si>
+  <si>
+    <t>Second volume estimate</t>
+  </si>
+  <si>
+    <t>% of "Maximum wood volume" at the "Second volume estimate" year</t>
+  </si>
+  <si>
+    <t>% of the volume at the age given by "Second volume estimate" attained at the "First volume estimate" year</t>
+  </si>
+  <si>
+    <t>Age of the trees at the time that they are planted</t>
+  </si>
+  <si>
+    <t>Rotation length</t>
+  </si>
+  <si>
+    <t>Pruning ratio</t>
+  </si>
+  <si>
+    <t>Maximum nuts/fruits yield</t>
+  </si>
+  <si>
+    <t>First nuts/fruits estimate</t>
+  </si>
+  <si>
+    <t>Second nuts/fruits estimate</t>
+  </si>
+  <si>
+    <t>% of "Maximum nuts/fruits yield" attained at the "First nuts/fruits estimate" year</t>
+  </si>
+  <si>
+    <t>% of "Maximum nuts/fruits yield" attained at the "Second nuts/fruits estimate" year</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of the nuts/fruits yield</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of the nuts/fruits yield in relation to the yield simulated with the logarithmic function [%]</t>
+  </si>
+  <si>
+    <t>Yield failure probability for nuts/fruits</t>
+  </si>
+  <si>
+    <t>Magnitude of fruit/nuts' yield failures</t>
+  </si>
+  <si>
+    <t>Farmgate price of fruits/nuts</t>
+  </si>
+  <si>
+    <t>Low quality wood price</t>
+  </si>
+  <si>
+    <t>Rounwood price</t>
+  </si>
+  <si>
+    <t>Rounwood price: Farmgate price of roundwood [€/m3]</t>
+  </si>
+  <si>
+    <t>Premium quality timber price</t>
+  </si>
+  <si>
+    <t>Proportion of tree biomass used in durable products</t>
+  </si>
+  <si>
+    <t>Proportion of the "tree biomass used in durable products" sold at "Premium quality timber price"</t>
+  </si>
+  <si>
+    <t>Operational leek production restrictions</t>
+  </si>
+  <si>
+    <t>First year of operational leek production restrictions</t>
+  </si>
+  <si>
+    <t>Maximum yield reduction</t>
+  </si>
+  <si>
+    <t>Maximum yield reduction (on an "equivalent cultivated area" basis): Maximum proportion of the arable crops' yield in a treeless field which cannot be attained in agroforestry due to the competition imposed by trees [ratio]</t>
+  </si>
+  <si>
+    <t>First yield reduction estimate</t>
+  </si>
+  <si>
+    <t>Second yield reduction estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of "Maximum yield reduction" at the "First yield reduction estimate" year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of "Maximum yield reduction" at the "Second yield reduction estimate" year </t>
+  </si>
+  <si>
+    <t>Yield failure probability for arable crops in treeless fields</t>
+  </si>
+  <si>
+    <t>Yield failure probability for arable crops due to the presence of trees</t>
+  </si>
+  <si>
+    <t>Magnitude of arable crops' yield failures</t>
+  </si>
+  <si>
+    <t>Maximum disturbance buffer effect</t>
+  </si>
+  <si>
+    <t>First disturbance buffer estimate</t>
+  </si>
+  <si>
+    <t>Second disturbance buffer estimate</t>
+  </si>
+  <si>
+    <t>% of "Maximum disturbance buffer effect" at the "First disturbance buffer estimate" year</t>
+  </si>
+  <si>
+    <t>% of "Maximum disturbance buffer effect" at the "Second disturbance buffer estimate" year</t>
+  </si>
+  <si>
+    <t>Consultancy costs</t>
+  </si>
+  <si>
+    <t>Maintenance support</t>
+  </si>
+  <si>
+    <t>Establishment support as a percentage of total investment costs?</t>
+  </si>
+  <si>
+    <t>Establishment support (as a percentage of total investment costs)</t>
+  </si>
+  <si>
+    <t>Establishment support (independent of total investment costs)</t>
+  </si>
+  <si>
+    <t>Wood density</t>
+  </si>
+  <si>
+    <t>The wood density of the trees planted in the woody strips (i.e.: biomass-to-volume ratio) [t/m3]</t>
+  </si>
+  <si>
+    <t>Root-to-shoot ratio mature trees</t>
+  </si>
+  <si>
+    <t>Root-to-shoot ratio saplings</t>
+  </si>
+  <si>
+    <t>Annual trend of the root-to-shoot ratio</t>
+  </si>
+  <si>
+    <t>Annual trend of the root-to-shoot ratio value across the trees' lifespan (in percent).</t>
+  </si>
+  <si>
+    <t>Carbon density</t>
+  </si>
+  <si>
+    <t>Initial soil carbon stock (cropland)</t>
+  </si>
+  <si>
+    <t>Initial soil carbon stock (grassland)</t>
+  </si>
+  <si>
+    <t>SOC accrual constant</t>
+  </si>
+  <si>
+    <t>SOC loss constant</t>
+  </si>
+  <si>
+    <t>Maximum attainable SOC stock under the woody strips</t>
+  </si>
+  <si>
+    <t>Maximum attainable soil carbon stock in the soil where the intervention takes place, expressed as a percentage over the baseline value [%]</t>
+  </si>
+  <si>
+    <t>Minimum attainable SOC stock under the woody strips</t>
+  </si>
+  <si>
+    <t>Minimum attainable soil carbon stock in the soil where the intervention takes place, expressed as a percentage of the baseline value [%]</t>
+  </si>
+  <si>
+    <t>First SOC accrual year after tree planting</t>
+  </si>
+  <si>
+    <t>SOC under the alleys vs. SOC under the woody strips</t>
+  </si>
+  <si>
+    <t>Maximum attainable SOC stock under the alleys</t>
+  </si>
+  <si>
+    <t>Annual SOC change if no trees are planted</t>
+  </si>
+  <si>
+    <t>Slowdown of annual SOC change if no trees are planted</t>
+  </si>
+  <si>
+    <t>Impact of crop production difference between alley and treeless cropping on SOC change</t>
   </si>
 </sst>
 </file>
@@ -1567,48 +1921,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,7 +1978,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1926,113 +2280,113 @@
       <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2043,22 +2397,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="94.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2075,19 +2429,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2104,48 +2461,54 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="s">
         <v>140</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2162,45 +2525,51 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" t="s">
         <v>140</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1E-3</v>
       </c>
-      <c r="I4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>442</v>
       </c>
       <c r="G5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>343</v>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2210,20 +2579,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="160.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="6" max="6" width="80.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,19 +2609,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2269,89 +2641,98 @@
         <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
+        <v>444</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
         <v>1E-3</v>
       </c>
-      <c r="I2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="G3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="F4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="F5" t="s">
+        <v>260</v>
+      </c>
       <c r="G5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="H6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>0.36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6">
-        <v>1E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.9</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2360,27 +2741,30 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>0.01</v>
-      </c>
-      <c r="I7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2389,361 +2773,461 @@
         <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>233</v>
+      </c>
       <c r="G9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
       <c r="G10" t="s">
-        <v>320</v>
-      </c>
-      <c r="I10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="H11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
-        <v>1E-3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="H12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-      <c r="I13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="H13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>450</v>
       </c>
       <c r="G14" t="s">
-        <v>313</v>
-      </c>
-      <c r="I14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>451</v>
+      </c>
       <c r="G15" t="s">
-        <v>314</v>
-      </c>
-      <c r="I15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>454</v>
+      </c>
+      <c r="G18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
         <v>40</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F20" t="s">
+        <v>458</v>
+      </c>
+      <c r="G20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20">
+        <v>0.01</v>
+      </c>
+      <c r="J20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1">
-        <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="F21" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>1E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1">
         <v>0.02</v>
       </c>
-      <c r="C18" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18">
-        <v>1E-3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19">
-        <v>1E-4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="1">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="G22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>461</v>
+      </c>
       <c r="G23" t="s">
-        <v>320</v>
-      </c>
-      <c r="I23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>303</v>
+        <v>462</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C25" s="1">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="D25" t="s">
         <v>91</v>
@@ -2752,133 +3236,39 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>463</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25">
-        <v>0.01</v>
-      </c>
-      <c r="I25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26">
-        <v>0.01</v>
-      </c>
-      <c r="I26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27">
-        <v>1E-3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28">
-        <v>0.01</v>
-      </c>
-      <c r="I28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29">
-        <v>1E-3</v>
-      </c>
-      <c r="I29" t="s">
-        <v>311</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="H26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="H27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2893,14 +3283,14 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="52.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2926,10 +3316,10 @@
         <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -2946,7 +3336,7 @@
         <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
         <v>138</v>
@@ -2955,486 +3345,486 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
@@ -3447,21 +3837,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="59.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" customWidth="1"/>
     <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3487,10 +3877,10 @@
         <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3507,7 +3897,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
         <v>138</v>
@@ -3516,10 +3906,10 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3536,7 +3926,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>138</v>
@@ -3545,10 +3935,10 @@
         <v>1E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3565,7 +3955,7 @@
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
         <v>140</v>
@@ -3574,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -3594,7 +3984,7 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
         <v>140</v>
@@ -3603,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3614,21 +4004,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3645,19 +4035,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3674,19 +4067,22 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
         <v>140</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3703,19 +4099,22 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -3732,19 +4131,22 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
         <v>140</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3761,27 +4163,30 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -3790,19 +4195,22 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
         <v>140</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3819,471 +4227,474 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -4296,18 +4707,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B046A6C-AF4B-434A-AE31-2F62785AB96F}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" customWidth="1"/>
+    <col min="6" max="6" width="68.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4324,19 +4735,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4353,19 +4767,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" t="s">
         <v>140</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.01</v>
       </c>
-      <c r="I2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4382,20 +4799,23 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1E-4</v>
       </c>
-      <c r="I3" t="s">
-        <v>309</v>
+      <c r="J3" t="s">
+        <v>251</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4412,19 +4832,22 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" t="s">
         <v>140</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4441,467 +4864,470 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1E-3</v>
       </c>
-      <c r="I5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -4912,22 +5338,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF733DD-E084-451A-AEBD-87D8A1F2D1F6}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="128.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="128.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4944,19 +5370,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4973,19 +5402,22 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5002,19 +5434,22 @@
         <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5031,16 +5466,19 @@
         <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>334</v>
+        <v>313</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5050,23 +5488,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="63.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5083,19 +5521,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5112,19 +5553,22 @@
         <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5138,22 +5582,25 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -5167,22 +5614,25 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -5196,22 +5646,25 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -5225,22 +5678,25 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5254,22 +5710,25 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5283,22 +5742,25 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5312,22 +5774,25 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5344,19 +5809,22 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10">
         <v>1E-3</v>
       </c>
-      <c r="I10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5373,19 +5841,22 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5399,22 +5870,25 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5431,19 +5905,22 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5460,19 +5937,22 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14">
+        <v>339</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14">
         <v>0.01</v>
       </c>
-      <c r="I14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5489,19 +5969,22 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5518,19 +6001,22 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5544,22 +6030,25 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17">
+        <v>345</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17">
         <v>1E-3</v>
       </c>
-      <c r="I17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5576,19 +6065,22 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18">
+        <v>347</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
         <v>1E-3</v>
       </c>
-      <c r="I18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5605,19 +6097,22 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19">
+        <v>349</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19">
         <v>1E-3</v>
       </c>
-      <c r="I19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -5634,19 +6129,22 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20">
+        <v>351</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20">
         <v>1E-3</v>
       </c>
-      <c r="I20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -5663,19 +6161,22 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21">
+        <v>353</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21">
         <v>1E-4</v>
       </c>
-      <c r="I21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5692,19 +6193,22 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22">
+        <v>355</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22">
         <v>0.01</v>
       </c>
-      <c r="I22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -5721,19 +6225,22 @@
         <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>356</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -5750,19 +6257,22 @@
         <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="H24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -5779,19 +6289,22 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -5808,19 +6321,22 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>362</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26">
+        <v>363</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26">
         <v>1E-3</v>
       </c>
-      <c r="I26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -5831,21 +6347,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="3" width="12.54296875" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5862,19 +6378,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5891,19 +6410,22 @@
         <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -5920,19 +6442,22 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5949,19 +6474,22 @@
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -5978,19 +6506,22 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6007,19 +6538,22 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>370</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6036,19 +6570,22 @@
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>371</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -6065,19 +6602,22 @@
         <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -6094,19 +6634,22 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -6123,19 +6666,22 @@
         <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -6152,19 +6698,22 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6181,19 +6730,22 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>379</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6210,19 +6762,22 @@
         <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>381</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -6239,19 +6794,22 @@
         <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6268,19 +6826,22 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6297,19 +6858,22 @@
         <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6326,19 +6890,22 @@
         <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>388</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6355,19 +6922,22 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18">
+        <v>188</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
         <v>0.01</v>
       </c>
-      <c r="I18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6384,19 +6954,22 @@
         <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -6413,19 +6986,22 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20">
+        <v>394</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20">
         <v>0.01</v>
       </c>
-      <c r="I20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6442,19 +7018,22 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -6471,16 +7050,19 @@
         <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>337</v>
+        <v>397</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6490,21 +7072,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="107.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="107.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6521,52 +7103,58 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="G2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="G4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -6583,19 +7171,22 @@
         <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6612,19 +7203,22 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
         <v>140</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -6641,19 +7235,22 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
         <v>140</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6670,19 +7267,22 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>401</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -6699,39 +7299,42 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="G10" t="s">
-        <v>314</v>
-      </c>
-      <c r="I10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="G11" t="s">
-        <v>320</v>
-      </c>
-      <c r="I11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -6748,19 +7351,22 @@
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -6777,19 +7383,22 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -6806,52 +7415,58 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>405</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14">
         <v>1E-3</v>
       </c>
-      <c r="I14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="G15" t="s">
-        <v>320</v>
-      </c>
-      <c r="I15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
-      </c>
-      <c r="I16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="H16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="G17" t="s">
-        <v>314</v>
-      </c>
-      <c r="I17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6868,19 +7483,22 @@
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -6897,19 +7515,22 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>407</v>
       </c>
       <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
         <v>140</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -6926,19 +7547,22 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>408</v>
       </c>
       <c r="G20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
         <v>140</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -6955,19 +7579,22 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>409</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -6984,19 +7611,22 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -7013,39 +7643,42 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="G24" t="s">
-        <v>314</v>
-      </c>
-      <c r="I24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="G25" t="s">
-        <v>320</v>
-      </c>
-      <c r="I25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -7062,19 +7695,22 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26">
+        <v>201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26">
         <v>0.01</v>
       </c>
-      <c r="I26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -7091,19 +7727,22 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27">
+        <v>214</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27">
         <v>0.01</v>
       </c>
-      <c r="I27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -7120,19 +7759,22 @@
         <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7149,19 +7791,22 @@
         <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -7178,19 +7823,22 @@
         <v>176</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>417</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -7207,19 +7855,22 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -7236,19 +7887,22 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32">
+        <v>203</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32">
         <v>0.01</v>
       </c>
-      <c r="I32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -7265,16 +7919,19 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33">
         <v>0.01</v>
       </c>
-      <c r="I33" t="s">
-        <v>338</v>
+      <c r="J33" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7284,21 +7941,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="156.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="77.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7315,283 +7972,310 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2">
-        <v>0.01</v>
-      </c>
-      <c r="I2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="H2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="G4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="H4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="G5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>426</v>
+      </c>
       <c r="G6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1">
-        <v>0.15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>0.75</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="H10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="H11" t="s">
         <v>262</v>
       </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7">
+      <c r="J11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13">
         <v>1E-3</v>
       </c>
-      <c r="I7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="1">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="G12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-      <c r="I13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="1">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
@@ -7600,268 +8284,299 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14">
-        <v>0.01</v>
-      </c>
-      <c r="I14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14">
         <v>1E-3</v>
       </c>
-      <c r="I15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
+      <c r="J14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="H15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>1E-3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="H16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="G17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="H17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
-      </c>
-      <c r="I18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>434</v>
+      </c>
       <c r="G19" t="s">
-        <v>314</v>
-      </c>
-      <c r="I19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>435</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20">
-        <v>0.01</v>
-      </c>
-      <c r="I20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>436</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="H23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="H24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25">
+        <v>0.01</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
         <v>140</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>320</v>
-      </c>
-      <c r="I26" t="s">
-        <v>307</v>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7872,22 +8587,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18C2264-89B4-41CF-A7EB-F2121007945D}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="47.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7904,19 +8619,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -7933,16 +8651,19 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>307</v>
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B87DA-8B41-4E8C-A3AD-4D8C92D3D52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435E1BD-B3C2-4CA4-B2AC-51D2F79711C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="465">
   <si>
     <t>variable</t>
   </si>
@@ -718,9 +718,6 @@
     <t>Annual maintenance support: Lump sum of funds received annually from external sources in order to maintain the agroforestry system [€]</t>
   </si>
   <si>
-    <t>The price of one tone of certified CO2 sequestration [t CO2eq]</t>
-  </si>
-  <si>
     <t>Mean annual soil loss due to water erosion [t/ha]</t>
   </si>
   <si>
@@ -1424,6 +1421,12 @@
   </si>
   <si>
     <t>Impact of crop production difference between alley and treeless cropping on SOC change</t>
+  </si>
+  <si>
+    <t>Carbon certificate price</t>
+  </si>
+  <si>
+    <t>The income received by the farmer for one tone of certified CO2 sequestration [t CO2eq]</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2293,7 @@
         <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2298,7 +2301,7 @@
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2306,7 +2309,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2314,7 +2317,7 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2322,7 +2325,7 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2330,7 +2333,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2338,7 +2341,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2346,7 +2349,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2354,7 +2357,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2362,7 +2365,7 @@
         <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2370,7 +2373,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2378,7 +2381,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2386,7 +2389,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2432,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -2441,7 +2444,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2461,7 +2464,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
         <v>227</v>
@@ -2473,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2493,7 +2496,7 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G3" t="s">
         <v>225</v>
@@ -2505,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2525,7 +2528,7 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>224</v>
@@ -2537,7 +2540,7 @@
         <v>1E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2557,7 +2560,7 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G5" t="s">
         <v>226</v>
@@ -2569,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2581,9 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2609,7 +2610,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -2621,7 +2622,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2641,10 +2642,10 @@
         <v>105</v>
       </c>
       <c r="F2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
         <v>443</v>
-      </c>
-      <c r="G2" t="s">
-        <v>444</v>
       </c>
       <c r="H2" t="s">
         <v>138</v>
@@ -2653,7 +2654,7 @@
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2673,10 +2674,10 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -2685,43 +2686,43 @@
         <v>1E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2741,10 +2742,10 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
@@ -2753,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2773,16 +2774,16 @@
         <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2802,16 +2803,16 @@
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
         <v>138</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2831,52 +2832,52 @@
         <v>110</v>
       </c>
       <c r="F10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G10" t="s">
         <v>447</v>
       </c>
-      <c r="G10" t="s">
-        <v>448</v>
-      </c>
       <c r="H10" t="s">
         <v>138</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2896,10 +2897,10 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" t="s">
         <v>138</v>
@@ -2908,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2928,10 +2929,10 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H15" t="s">
         <v>138</v>
@@ -2940,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2960,10 +2961,10 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" t="s">
         <v>138</v>
@@ -2972,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2992,10 +2993,10 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -3004,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -3024,16 +3025,16 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
+        <v>453</v>
+      </c>
+      <c r="G18" t="s">
         <v>454</v>
       </c>
-      <c r="G18" t="s">
-        <v>455</v>
-      </c>
       <c r="H18" t="s">
         <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -3053,16 +3054,16 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
+        <v>455</v>
+      </c>
+      <c r="G19" t="s">
         <v>456</v>
       </c>
-      <c r="G19" t="s">
-        <v>457</v>
-      </c>
       <c r="H19" t="s">
         <v>138</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3082,10 +3083,10 @@
         <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -3094,7 +3095,7 @@
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -3114,10 +3115,10 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -3126,7 +3127,7 @@
         <v>1E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -3146,10 +3147,10 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" t="s">
         <v>140</v>
@@ -3158,7 +3159,7 @@
         <v>1E-3</v>
       </c>
       <c r="J22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -3178,16 +3179,16 @@
         <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -3207,16 +3208,16 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" t="s">
         <v>138</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -3236,30 +3237,30 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
         <v>138</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="H27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -3277,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3290,7 +3291,7 @@
     <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3307,19 +3308,22 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3336,71 +3340,74 @@
         <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>463</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
@@ -3835,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3851,7 +3858,7 @@
     <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3867,20 +3874,20 @@
       <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3897,19 +3904,22 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2">
+        <v>228</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2">
         <v>0.01</v>
       </c>
-      <c r="I2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3926,19 +3936,22 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
         <v>1E-3</v>
       </c>
-      <c r="I3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3955,19 +3968,22 @@
         <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
         <v>140</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -3984,16 +4000,19 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
         <v>140</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>287</v>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4054,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -4047,7 +4066,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4067,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
         <v>289</v>
-      </c>
-      <c r="G2" t="s">
-        <v>290</v>
       </c>
       <c r="H2" t="s">
         <v>140</v>
@@ -4079,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -4099,11 +4118,11 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" t="s">
         <v>291</v>
       </c>
-      <c r="G3" t="s">
-        <v>292</v>
-      </c>
       <c r="H3" t="s">
         <v>138</v>
       </c>
@@ -4111,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -4131,10 +4150,10 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" t="s">
         <v>293</v>
-      </c>
-      <c r="G4" t="s">
-        <v>294</v>
       </c>
       <c r="H4" t="s">
         <v>140</v>
@@ -4143,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -4163,10 +4182,10 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" t="s">
         <v>295</v>
-      </c>
-      <c r="G5" t="s">
-        <v>296</v>
       </c>
       <c r="H5" t="s">
         <v>140</v>
@@ -4175,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -4195,7 +4214,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
         <v>179</v>
@@ -4207,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -4227,11 +4246,11 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" t="s">
         <v>298</v>
       </c>
-      <c r="G7" t="s">
-        <v>299</v>
-      </c>
       <c r="H7" t="s">
         <v>138</v>
       </c>
@@ -4239,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -4735,7 +4754,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -4747,7 +4766,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -4767,10 +4786,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" t="s">
         <v>300</v>
-      </c>
-      <c r="G2" t="s">
-        <v>301</v>
       </c>
       <c r="H2" t="s">
         <v>140</v>
@@ -4779,7 +4798,7 @@
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4799,10 +4818,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
         <v>302</v>
-      </c>
-      <c r="G3" t="s">
-        <v>303</v>
       </c>
       <c r="H3" t="s">
         <v>140</v>
@@ -4811,7 +4830,7 @@
         <v>1E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -4832,10 +4851,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
         <v>304</v>
-      </c>
-      <c r="G4" t="s">
-        <v>305</v>
       </c>
       <c r="H4" t="s">
         <v>140</v>
@@ -4844,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4864,10 +4883,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
         <v>306</v>
-      </c>
-      <c r="G5" t="s">
-        <v>307</v>
       </c>
       <c r="H5" t="s">
         <v>140</v>
@@ -4876,7 +4895,7 @@
         <v>1E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5370,7 +5389,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -5382,7 +5401,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -5402,11 +5421,11 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" t="s">
         <v>308</v>
       </c>
-      <c r="G2" t="s">
-        <v>309</v>
-      </c>
       <c r="H2" t="s">
         <v>138</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -5434,11 +5453,11 @@
         <v>171</v>
       </c>
       <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
         <v>310</v>
       </c>
-      <c r="G3" t="s">
-        <v>311</v>
-      </c>
       <c r="H3" t="s">
         <v>138</v>
       </c>
@@ -5446,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5466,11 +5485,11 @@
         <v>171</v>
       </c>
       <c r="F4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" t="s">
         <v>312</v>
       </c>
-      <c r="G4" t="s">
-        <v>313</v>
-      </c>
       <c r="H4" t="s">
         <v>138</v>
       </c>
@@ -5478,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5521,7 +5540,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -5533,7 +5552,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -5553,11 +5572,11 @@
         <v>177</v>
       </c>
       <c r="F2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" t="s">
         <v>314</v>
       </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
       <c r="H2" t="s">
         <v>138</v>
       </c>
@@ -5565,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -5585,11 +5604,11 @@
         <v>180</v>
       </c>
       <c r="F3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" t="s">
         <v>316</v>
       </c>
-      <c r="G3" t="s">
-        <v>317</v>
-      </c>
       <c r="H3" t="s">
         <v>138</v>
       </c>
@@ -5597,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5617,11 +5636,11 @@
         <v>180</v>
       </c>
       <c r="F4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
         <v>318</v>
       </c>
-      <c r="G4" t="s">
-        <v>319</v>
-      </c>
       <c r="H4" t="s">
         <v>138</v>
       </c>
@@ -5629,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -5649,11 +5668,11 @@
         <v>180</v>
       </c>
       <c r="F5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" t="s">
         <v>320</v>
       </c>
-      <c r="G5" t="s">
-        <v>321</v>
-      </c>
       <c r="H5" t="s">
         <v>138</v>
       </c>
@@ -5661,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -5681,11 +5700,11 @@
         <v>180</v>
       </c>
       <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
         <v>322</v>
       </c>
-      <c r="G6" t="s">
-        <v>323</v>
-      </c>
       <c r="H6" t="s">
         <v>138</v>
       </c>
@@ -5693,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -5713,11 +5732,11 @@
         <v>180</v>
       </c>
       <c r="F7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
         <v>324</v>
       </c>
-      <c r="G7" t="s">
-        <v>325</v>
-      </c>
       <c r="H7" t="s">
         <v>138</v>
       </c>
@@ -5725,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5745,11 +5764,11 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" t="s">
         <v>326</v>
       </c>
-      <c r="G8" t="s">
-        <v>327</v>
-      </c>
       <c r="H8" t="s">
         <v>138</v>
       </c>
@@ -5757,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -5777,11 +5796,11 @@
         <v>180</v>
       </c>
       <c r="F9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" t="s">
         <v>328</v>
       </c>
-      <c r="G9" t="s">
-        <v>329</v>
-      </c>
       <c r="H9" t="s">
         <v>138</v>
       </c>
@@ -5789,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -5809,10 +5828,10 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" t="s">
-        <v>331</v>
       </c>
       <c r="H10" t="s">
         <v>138</v>
@@ -5821,7 +5840,7 @@
         <v>1E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -5841,11 +5860,11 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" t="s">
         <v>332</v>
       </c>
-      <c r="G11" t="s">
-        <v>333</v>
-      </c>
       <c r="H11" t="s">
         <v>138</v>
       </c>
@@ -5853,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5873,11 +5892,11 @@
         <v>181</v>
       </c>
       <c r="F12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" t="s">
         <v>334</v>
       </c>
-      <c r="G12" t="s">
-        <v>335</v>
-      </c>
       <c r="H12" t="s">
         <v>138</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5905,11 +5924,11 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" t="s">
         <v>336</v>
       </c>
-      <c r="G13" t="s">
-        <v>337</v>
-      </c>
       <c r="H13" t="s">
         <v>138</v>
       </c>
@@ -5917,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5937,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G14" t="s">
         <v>338</v>
-      </c>
-      <c r="G14" t="s">
-        <v>339</v>
       </c>
       <c r="H14" t="s">
         <v>138</v>
@@ -5949,7 +5968,7 @@
         <v>0.01</v>
       </c>
       <c r="J14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5969,11 +5988,11 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" t="s">
         <v>340</v>
       </c>
-      <c r="G15" t="s">
-        <v>341</v>
-      </c>
       <c r="H15" t="s">
         <v>138</v>
       </c>
@@ -5981,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -6001,11 +6020,11 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" t="s">
         <v>342</v>
       </c>
-      <c r="G16" t="s">
-        <v>343</v>
-      </c>
       <c r="H16" t="s">
         <v>138</v>
       </c>
@@ -6013,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -6033,10 +6052,10 @@
         <v>180</v>
       </c>
       <c r="F17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" t="s">
         <v>344</v>
-      </c>
-      <c r="G17" t="s">
-        <v>345</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -6045,7 +6064,7 @@
         <v>1E-3</v>
       </c>
       <c r="J17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -6065,10 +6084,10 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" t="s">
         <v>346</v>
-      </c>
-      <c r="G18" t="s">
-        <v>347</v>
       </c>
       <c r="H18" t="s">
         <v>138</v>
@@ -6077,7 +6096,7 @@
         <v>1E-3</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -6097,10 +6116,10 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" t="s">
         <v>348</v>
-      </c>
-      <c r="G19" t="s">
-        <v>349</v>
       </c>
       <c r="H19" t="s">
         <v>138</v>
@@ -6109,7 +6128,7 @@
         <v>1E-3</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -6129,10 +6148,10 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" t="s">
         <v>350</v>
-      </c>
-      <c r="G20" t="s">
-        <v>351</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -6141,7 +6160,7 @@
         <v>1E-3</v>
       </c>
       <c r="J20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -6161,10 +6180,10 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" t="s">
         <v>352</v>
-      </c>
-      <c r="G21" t="s">
-        <v>353</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -6173,7 +6192,7 @@
         <v>1E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -6193,10 +6212,10 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" t="s">
         <v>354</v>
-      </c>
-      <c r="G22" t="s">
-        <v>355</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -6205,7 +6224,7 @@
         <v>0.01</v>
       </c>
       <c r="J22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -6225,11 +6244,11 @@
         <v>174</v>
       </c>
       <c r="F23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G23" t="s">
         <v>356</v>
       </c>
-      <c r="G23" t="s">
-        <v>357</v>
-      </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
@@ -6237,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -6257,11 +6276,11 @@
         <v>174</v>
       </c>
       <c r="F24" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" t="s">
         <v>358</v>
       </c>
-      <c r="G24" t="s">
-        <v>359</v>
-      </c>
       <c r="H24" t="s">
         <v>138</v>
       </c>
@@ -6269,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -6289,11 +6308,11 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" t="s">
         <v>360</v>
       </c>
-      <c r="G25" t="s">
-        <v>361</v>
-      </c>
       <c r="H25" t="s">
         <v>138</v>
       </c>
@@ -6301,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -6321,10 +6340,10 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" t="s">
         <v>362</v>
-      </c>
-      <c r="G26" t="s">
-        <v>363</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -6333,7 +6352,7 @@
         <v>1E-3</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -6378,7 +6397,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -6390,7 +6409,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -6410,11 +6429,11 @@
         <v>174</v>
       </c>
       <c r="F2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" t="s">
-        <v>365</v>
-      </c>
       <c r="H2" t="s">
         <v>138</v>
       </c>
@@ -6422,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -6442,7 +6461,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
         <v>182</v>
@@ -6454,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -6474,11 +6493,11 @@
         <v>173</v>
       </c>
       <c r="F4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" t="s">
         <v>367</v>
       </c>
-      <c r="G4" t="s">
-        <v>368</v>
-      </c>
       <c r="H4" t="s">
         <v>138</v>
       </c>
@@ -6486,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -6506,7 +6525,7 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
         <v>186</v>
@@ -6518,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -6538,7 +6557,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G6" t="s">
         <v>183</v>
@@ -6550,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -6570,7 +6589,7 @@
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -6582,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -6602,11 +6621,11 @@
         <v>174</v>
       </c>
       <c r="F8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" t="s">
         <v>372</v>
       </c>
-      <c r="G8" t="s">
-        <v>373</v>
-      </c>
       <c r="H8" t="s">
         <v>138</v>
       </c>
@@ -6614,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -6634,7 +6653,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
         <v>185</v>
@@ -6646,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -6666,11 +6685,11 @@
         <v>173</v>
       </c>
       <c r="F10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" t="s">
         <v>375</v>
       </c>
-      <c r="G10" t="s">
-        <v>376</v>
-      </c>
       <c r="H10" t="s">
         <v>138</v>
       </c>
@@ -6678,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -6698,11 +6717,11 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
         <v>377</v>
       </c>
-      <c r="G11" t="s">
-        <v>378</v>
-      </c>
       <c r="H11" t="s">
         <v>138</v>
       </c>
@@ -6710,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -6730,11 +6749,11 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" t="s">
         <v>379</v>
       </c>
-      <c r="G12" t="s">
-        <v>380</v>
-      </c>
       <c r="H12" t="s">
         <v>138</v>
       </c>
@@ -6742,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -6762,11 +6781,11 @@
         <v>173</v>
       </c>
       <c r="F13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" t="s">
         <v>381</v>
       </c>
-      <c r="G13" t="s">
-        <v>382</v>
-      </c>
       <c r="H13" t="s">
         <v>138</v>
       </c>
@@ -6774,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -6794,11 +6813,11 @@
         <v>174</v>
       </c>
       <c r="F14" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" t="s">
         <v>383</v>
       </c>
-      <c r="G14" t="s">
-        <v>384</v>
-      </c>
       <c r="H14" t="s">
         <v>138</v>
       </c>
@@ -6806,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -6826,7 +6845,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
         <v>187</v>
@@ -6838,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -6858,11 +6877,11 @@
         <v>173</v>
       </c>
       <c r="F16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
-        <v>387</v>
-      </c>
       <c r="H16" t="s">
         <v>138</v>
       </c>
@@ -6870,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -6890,11 +6909,11 @@
         <v>174</v>
       </c>
       <c r="F17" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" t="s">
         <v>388</v>
       </c>
-      <c r="G17" t="s">
-        <v>389</v>
-      </c>
       <c r="H17" t="s">
         <v>138</v>
       </c>
@@ -6902,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -6922,7 +6941,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G18" t="s">
         <v>188</v>
@@ -6934,7 +6953,7 @@
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -6954,11 +6973,11 @@
         <v>173</v>
       </c>
       <c r="F19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" t="s">
         <v>391</v>
       </c>
-      <c r="G19" t="s">
-        <v>392</v>
-      </c>
       <c r="H19" t="s">
         <v>138</v>
       </c>
@@ -6966,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -6986,10 +7005,10 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" t="s">
         <v>393</v>
-      </c>
-      <c r="G20" t="s">
-        <v>394</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -6998,7 +7017,7 @@
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -7018,7 +7037,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
         <v>189</v>
@@ -7030,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -7050,11 +7069,11 @@
         <v>173</v>
       </c>
       <c r="F22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G22" t="s">
         <v>396</v>
       </c>
-      <c r="G22" t="s">
-        <v>397</v>
-      </c>
       <c r="H22" t="s">
         <v>138</v>
       </c>
@@ -7062,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7103,7 +7122,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -7115,43 +7134,43 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" t="s">
         <v>254</v>
       </c>
-      <c r="G3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" t="s">
-        <v>255</v>
-      </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7171,7 +7190,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
@@ -7183,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7203,7 +7222,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" t="s">
         <v>191</v>
@@ -7215,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7235,7 +7254,7 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" t="s">
         <v>192</v>
@@ -7247,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7267,7 +7286,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G8" t="s">
         <v>193</v>
@@ -7279,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -7299,7 +7318,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
         <v>194</v>
@@ -7311,27 +7330,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -7351,7 +7370,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" t="s">
         <v>195</v>
@@ -7363,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -7383,10 +7402,10 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H13" t="s">
         <v>138</v>
@@ -7395,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -7415,7 +7434,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" t="s">
         <v>206</v>
@@ -7427,43 +7446,43 @@
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -7483,7 +7502,7 @@
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
         <v>198</v>
@@ -7495,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -7515,7 +7534,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
         <v>196</v>
@@ -7527,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -7547,7 +7566,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G20" t="s">
         <v>197</v>
@@ -7559,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -7579,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G21" t="s">
         <v>199</v>
@@ -7591,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -7611,7 +7630,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G22" t="s">
         <v>200</v>
@@ -7623,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -7643,11 +7662,11 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" t="s">
         <v>411</v>
       </c>
-      <c r="G23" t="s">
-        <v>412</v>
-      </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
@@ -7655,27 +7674,27 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -7695,7 +7714,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G26" t="s">
         <v>201</v>
@@ -7707,7 +7726,7 @@
         <v>0.01</v>
       </c>
       <c r="J26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -7727,7 +7746,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G27" t="s">
         <v>214</v>
@@ -7739,7 +7758,7 @@
         <v>0.01</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -7759,7 +7778,7 @@
         <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G28" t="s">
         <v>202</v>
@@ -7771,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -7791,7 +7810,7 @@
         <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G29" t="s">
         <v>207</v>
@@ -7803,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -7823,11 +7842,11 @@
         <v>176</v>
       </c>
       <c r="F30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" t="s">
         <v>417</v>
       </c>
-      <c r="G30" t="s">
-        <v>418</v>
-      </c>
       <c r="H30" t="s">
         <v>138</v>
       </c>
@@ -7835,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -7855,7 +7874,7 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G31" t="s">
         <v>204</v>
@@ -7867,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -7887,7 +7906,7 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
         <v>203</v>
@@ -7899,7 +7918,7 @@
         <v>0.01</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -7919,7 +7938,7 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G33" t="s">
         <v>205</v>
@@ -7931,7 +7950,7 @@
         <v>0.01</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +7991,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -7984,43 +8003,43 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -8040,10 +8059,10 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" t="s">
         <v>424</v>
-      </c>
-      <c r="G5" t="s">
-        <v>425</v>
       </c>
       <c r="H5" t="s">
         <v>138</v>
@@ -8052,7 +8071,7 @@
         <v>1E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -8072,7 +8091,7 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G6" t="s">
         <v>210</v>
@@ -8084,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -8104,7 +8123,7 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G7" t="s">
         <v>211</v>
@@ -8116,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -8136,7 +8155,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G8" t="s">
         <v>212</v>
@@ -8148,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -8168,7 +8187,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G9" t="s">
         <v>213</v>
@@ -8180,27 +8199,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -8220,7 +8239,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G12" t="s">
         <v>216</v>
@@ -8232,7 +8251,7 @@
         <v>0.01</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -8252,7 +8271,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G13" t="s">
         <v>215</v>
@@ -8264,7 +8283,7 @@
         <v>1E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -8284,7 +8303,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G14" t="s">
         <v>221</v>
@@ -8296,43 +8315,43 @@
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -8352,7 +8371,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G18" t="s">
         <v>222</v>
@@ -8364,7 +8383,7 @@
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -8384,7 +8403,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G19" t="s">
         <v>220</v>
@@ -8396,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -8416,7 +8435,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G20" t="s">
         <v>219</v>
@@ -8428,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -8448,7 +8467,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
         <v>217</v>
@@ -8460,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -8480,7 +8499,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G22" t="s">
         <v>218</v>
@@ -8492,27 +8511,27 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -8532,7 +8551,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G25" t="s">
         <v>208</v>
@@ -8544,7 +8563,7 @@
         <v>0.01</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -8564,7 +8583,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G26" t="s">
         <v>209</v>
@@ -8576,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +8638,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -8631,7 +8650,7 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8651,7 +8670,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G2" t="s">
         <v>223</v>
@@ -8663,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4435E1BD-B3C2-4CA4-B2AC-51D2F79711C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06417455-764A-4C7D-86E9-0B56CE35ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -802,9 +802,6 @@
     <t>horizontal line</t>
   </si>
   <si>
-    <t>Walnut yield model</t>
-  </si>
-  <si>
     <t>Tree impact on alley crop yield</t>
   </si>
   <si>
@@ -1427,6 +1424,9 @@
   </si>
   <si>
     <t>The income received by the farmer for one tone of certified CO2 sequestration [t CO2eq]</t>
+  </si>
+  <si>
+    <t>Nuts/fruit yield model</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2293,7 @@
         <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2301,7 +2301,7 @@
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2309,7 +2309,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2317,7 +2317,7 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2325,7 +2325,7 @@
         <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2333,7 +2333,7 @@
         <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2341,7 +2341,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2349,7 +2349,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2357,7 +2357,7 @@
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2365,7 +2365,7 @@
         <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2373,7 +2373,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2381,7 +2381,7 @@
         <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2389,7 +2389,7 @@
         <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2402,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2432,7 +2432,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -2464,7 +2464,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G2" t="s">
         <v>227</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2496,7 +2496,7 @@
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G3" t="s">
         <v>225</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2528,7 +2528,7 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G4" t="s">
         <v>224</v>
@@ -2540,7 +2540,7 @@
         <v>1E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2560,7 +2560,7 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" t="s">
         <v>226</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2610,7 +2612,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -2642,10 +2644,10 @@
         <v>105</v>
       </c>
       <c r="F2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
         <v>442</v>
-      </c>
-      <c r="G2" t="s">
-        <v>443</v>
       </c>
       <c r="H2" t="s">
         <v>138</v>
@@ -2674,7 +2676,7 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
         <v>240</v>
@@ -2693,26 +2695,26 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
         <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2722,7 +2724,7 @@
         <v>255</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2742,7 +2744,7 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G7" t="s">
         <v>233</v>
@@ -2774,7 +2776,7 @@
         <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" t="s">
         <v>234</v>
@@ -2832,10 +2834,10 @@
         <v>110</v>
       </c>
       <c r="F10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" t="s">
         <v>446</v>
-      </c>
-      <c r="G10" t="s">
-        <v>447</v>
       </c>
       <c r="H10" t="s">
         <v>138</v>
@@ -2848,7 +2850,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" t="s">
         <v>252</v>
@@ -2858,10 +2860,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
         <v>254</v>
@@ -2897,7 +2899,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G14" t="s">
         <v>239</v>
@@ -2929,7 +2931,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G15" t="s">
         <v>238</v>
@@ -2961,7 +2963,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G16" t="s">
         <v>237</v>
@@ -2993,7 +2995,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G17" t="s">
         <v>236</v>
@@ -3025,10 +3027,10 @@
         <v>110</v>
       </c>
       <c r="F18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" t="s">
         <v>453</v>
-      </c>
-      <c r="G18" t="s">
-        <v>454</v>
       </c>
       <c r="H18" t="s">
         <v>138</v>
@@ -3054,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="F19" t="s">
+        <v>454</v>
+      </c>
+      <c r="G19" t="s">
         <v>455</v>
-      </c>
-      <c r="G19" t="s">
-        <v>456</v>
       </c>
       <c r="H19" t="s">
         <v>138</v>
@@ -3083,7 +3085,7 @@
         <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G20" t="s">
         <v>245</v>
@@ -3115,7 +3117,7 @@
         <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G21" t="s">
         <v>241</v>
@@ -3147,7 +3149,7 @@
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G22" t="s">
         <v>242</v>
@@ -3179,7 +3181,7 @@
         <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G23" t="s">
         <v>246</v>
@@ -3208,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G24" t="s">
         <v>243</v>
@@ -3237,7 +3239,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G25" t="s">
         <v>244</v>
@@ -3260,7 +3262,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -3281,7 +3283,7 @@
   <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3308,7 +3310,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -3340,11 +3342,11 @@
         <v>172</v>
       </c>
       <c r="F2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" t="s">
         <v>463</v>
       </c>
-      <c r="G2" t="s">
-        <v>464</v>
-      </c>
       <c r="H2" t="s">
         <v>138</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3845,7 +3847,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3980,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -4012,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4025,15 +4027,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.7265625" customWidth="1"/>
     <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" customWidth="1"/>
     <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4054,7 +4057,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -4086,10 +4089,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
         <v>288</v>
-      </c>
-      <c r="G2" t="s">
-        <v>289</v>
       </c>
       <c r="H2" t="s">
         <v>140</v>
@@ -4118,10 +4121,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" t="s">
         <v>290</v>
-      </c>
-      <c r="G3" t="s">
-        <v>291</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -4150,10 +4153,10 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" t="s">
         <v>292</v>
-      </c>
-      <c r="G4" t="s">
-        <v>293</v>
       </c>
       <c r="H4" t="s">
         <v>140</v>
@@ -4182,10 +4185,10 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
         <v>294</v>
-      </c>
-      <c r="G5" t="s">
-        <v>295</v>
       </c>
       <c r="H5" t="s">
         <v>140</v>
@@ -4214,7 +4217,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
         <v>179</v>
@@ -4246,10 +4249,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" t="s">
         <v>297</v>
-      </c>
-      <c r="G7" t="s">
-        <v>298</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
@@ -4726,7 +4729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B046A6C-AF4B-434A-AE31-2F62785AB96F}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
@@ -4754,7 +4757,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -4786,10 +4789,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="s">
         <v>299</v>
-      </c>
-      <c r="G2" t="s">
-        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>140</v>
@@ -4818,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" t="s">
         <v>301</v>
-      </c>
-      <c r="G3" t="s">
-        <v>302</v>
       </c>
       <c r="H3" t="s">
         <v>140</v>
@@ -4851,10 +4854,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
         <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
       </c>
       <c r="H4" t="s">
         <v>140</v>
@@ -4883,10 +4886,10 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" t="s">
         <v>305</v>
-      </c>
-      <c r="G5" t="s">
-        <v>306</v>
       </c>
       <c r="H5" t="s">
         <v>140</v>
@@ -5360,7 +5363,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5389,7 +5392,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -5421,11 +5424,11 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" t="s">
         <v>307</v>
       </c>
-      <c r="G2" t="s">
-        <v>308</v>
-      </c>
       <c r="H2" t="s">
         <v>138</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -5453,11 +5456,11 @@
         <v>171</v>
       </c>
       <c r="F3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" t="s">
         <v>309</v>
       </c>
-      <c r="G3" t="s">
-        <v>310</v>
-      </c>
       <c r="H3" t="s">
         <v>138</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5485,11 +5488,11 @@
         <v>171</v>
       </c>
       <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" t="s">
         <v>311</v>
       </c>
-      <c r="G4" t="s">
-        <v>312</v>
-      </c>
       <c r="H4" t="s">
         <v>138</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5509,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5540,7 +5543,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -5572,10 +5575,10 @@
         <v>177</v>
       </c>
       <c r="F2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
         <v>313</v>
-      </c>
-      <c r="G2" t="s">
-        <v>314</v>
       </c>
       <c r="H2" t="s">
         <v>138</v>
@@ -5604,10 +5607,10 @@
         <v>180</v>
       </c>
       <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
         <v>315</v>
-      </c>
-      <c r="G3" t="s">
-        <v>316</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -5636,10 +5639,10 @@
         <v>180</v>
       </c>
       <c r="F4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" t="s">
         <v>317</v>
-      </c>
-      <c r="G4" t="s">
-        <v>318</v>
       </c>
       <c r="H4" t="s">
         <v>138</v>
@@ -5668,10 +5671,10 @@
         <v>180</v>
       </c>
       <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
         <v>319</v>
-      </c>
-      <c r="G5" t="s">
-        <v>320</v>
       </c>
       <c r="H5" t="s">
         <v>138</v>
@@ -5700,10 +5703,10 @@
         <v>180</v>
       </c>
       <c r="F6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
         <v>321</v>
-      </c>
-      <c r="G6" t="s">
-        <v>322</v>
       </c>
       <c r="H6" t="s">
         <v>138</v>
@@ -5732,10 +5735,10 @@
         <v>180</v>
       </c>
       <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
         <v>323</v>
-      </c>
-      <c r="G7" t="s">
-        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
@@ -5764,10 +5767,10 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
         <v>325</v>
-      </c>
-      <c r="G8" t="s">
-        <v>326</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
@@ -5796,10 +5799,10 @@
         <v>180</v>
       </c>
       <c r="F9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" t="s">
         <v>327</v>
-      </c>
-      <c r="G9" t="s">
-        <v>328</v>
       </c>
       <c r="H9" t="s">
         <v>138</v>
@@ -5828,10 +5831,10 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" t="s">
         <v>329</v>
-      </c>
-      <c r="G10" t="s">
-        <v>330</v>
       </c>
       <c r="H10" t="s">
         <v>138</v>
@@ -5860,11 +5863,11 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
         <v>331</v>
       </c>
-      <c r="G11" t="s">
-        <v>332</v>
-      </c>
       <c r="H11" t="s">
         <v>138</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5892,11 +5895,11 @@
         <v>181</v>
       </c>
       <c r="F12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" t="s">
         <v>333</v>
       </c>
-      <c r="G12" t="s">
-        <v>334</v>
-      </c>
       <c r="H12" t="s">
         <v>138</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5924,10 +5927,10 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" t="s">
         <v>335</v>
-      </c>
-      <c r="G13" t="s">
-        <v>336</v>
       </c>
       <c r="H13" t="s">
         <v>138</v>
@@ -5956,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" t="s">
         <v>337</v>
-      </c>
-      <c r="G14" t="s">
-        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>138</v>
@@ -5988,10 +5991,10 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G15" t="s">
         <v>339</v>
-      </c>
-      <c r="G15" t="s">
-        <v>340</v>
       </c>
       <c r="H15" t="s">
         <v>138</v>
@@ -6020,10 +6023,10 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" t="s">
         <v>341</v>
-      </c>
-      <c r="G16" t="s">
-        <v>342</v>
       </c>
       <c r="H16" t="s">
         <v>138</v>
@@ -6052,10 +6055,10 @@
         <v>180</v>
       </c>
       <c r="F17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" t="s">
         <v>343</v>
-      </c>
-      <c r="G17" t="s">
-        <v>344</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -6084,10 +6087,10 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" t="s">
         <v>345</v>
-      </c>
-      <c r="G18" t="s">
-        <v>346</v>
       </c>
       <c r="H18" t="s">
         <v>138</v>
@@ -6116,10 +6119,10 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" t="s">
         <v>347</v>
-      </c>
-      <c r="G19" t="s">
-        <v>348</v>
       </c>
       <c r="H19" t="s">
         <v>138</v>
@@ -6148,10 +6151,10 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" t="s">
         <v>349</v>
-      </c>
-      <c r="G20" t="s">
-        <v>350</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -6160,7 +6163,7 @@
         <v>1E-3</v>
       </c>
       <c r="J20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -6180,10 +6183,10 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" t="s">
         <v>351</v>
-      </c>
-      <c r="G21" t="s">
-        <v>352</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -6192,7 +6195,7 @@
         <v>1E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -6212,10 +6215,10 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" t="s">
         <v>353</v>
-      </c>
-      <c r="G22" t="s">
-        <v>354</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -6224,7 +6227,7 @@
         <v>0.01</v>
       </c>
       <c r="J22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -6244,11 +6247,11 @@
         <v>174</v>
       </c>
       <c r="F23" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" t="s">
         <v>355</v>
       </c>
-      <c r="G23" t="s">
-        <v>356</v>
-      </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -6276,11 +6279,11 @@
         <v>174</v>
       </c>
       <c r="F24" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" t="s">
         <v>357</v>
       </c>
-      <c r="G24" t="s">
-        <v>358</v>
-      </c>
       <c r="H24" t="s">
         <v>138</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -6308,10 +6311,10 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" t="s">
         <v>359</v>
-      </c>
-      <c r="G25" t="s">
-        <v>360</v>
       </c>
       <c r="H25" t="s">
         <v>138</v>
@@ -6340,10 +6343,10 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" t="s">
         <v>361</v>
-      </c>
-      <c r="G26" t="s">
-        <v>362</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -6368,7 +6371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
@@ -6397,7 +6400,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -6429,10 +6432,10 @@
         <v>174</v>
       </c>
       <c r="F2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" t="s">
         <v>363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>364</v>
       </c>
       <c r="H2" t="s">
         <v>138</v>
@@ -6461,7 +6464,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
         <v>182</v>
@@ -6493,11 +6496,11 @@
         <v>173</v>
       </c>
       <c r="F4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" t="s">
         <v>366</v>
       </c>
-      <c r="G4" t="s">
-        <v>367</v>
-      </c>
       <c r="H4" t="s">
         <v>138</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -6525,7 +6528,7 @@
         <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G5" t="s">
         <v>186</v>
@@ -6557,7 +6560,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G6" t="s">
         <v>183</v>
@@ -6589,7 +6592,7 @@
         <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -6601,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -6621,10 +6624,10 @@
         <v>174</v>
       </c>
       <c r="F8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" t="s">
         <v>371</v>
-      </c>
-      <c r="G8" t="s">
-        <v>372</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
@@ -6653,7 +6656,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
         <v>185</v>
@@ -6685,11 +6688,11 @@
         <v>173</v>
       </c>
       <c r="F10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G10" t="s">
         <v>374</v>
       </c>
-      <c r="G10" t="s">
-        <v>375</v>
-      </c>
       <c r="H10" t="s">
         <v>138</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -6717,10 +6720,10 @@
         <v>174</v>
       </c>
       <c r="F11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" t="s">
         <v>376</v>
-      </c>
-      <c r="G11" t="s">
-        <v>377</v>
       </c>
       <c r="H11" t="s">
         <v>138</v>
@@ -6749,10 +6752,10 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" t="s">
         <v>378</v>
-      </c>
-      <c r="G12" t="s">
-        <v>379</v>
       </c>
       <c r="H12" t="s">
         <v>138</v>
@@ -6781,11 +6784,11 @@
         <v>173</v>
       </c>
       <c r="F13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" t="s">
         <v>380</v>
       </c>
-      <c r="G13" t="s">
-        <v>381</v>
-      </c>
       <c r="H13" t="s">
         <v>138</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -6813,10 +6816,10 @@
         <v>174</v>
       </c>
       <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" t="s">
         <v>382</v>
-      </c>
-      <c r="G14" t="s">
-        <v>383</v>
       </c>
       <c r="H14" t="s">
         <v>138</v>
@@ -6845,7 +6848,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" t="s">
         <v>187</v>
@@ -6877,11 +6880,11 @@
         <v>173</v>
       </c>
       <c r="F16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" t="s">
         <v>385</v>
       </c>
-      <c r="G16" t="s">
-        <v>386</v>
-      </c>
       <c r="H16" t="s">
         <v>138</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -6909,10 +6912,10 @@
         <v>174</v>
       </c>
       <c r="F17" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" t="s">
         <v>387</v>
-      </c>
-      <c r="G17" t="s">
-        <v>388</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -6941,7 +6944,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
         <v>188</v>
@@ -6973,11 +6976,11 @@
         <v>173</v>
       </c>
       <c r="F19" t="s">
+        <v>389</v>
+      </c>
+      <c r="G19" t="s">
         <v>390</v>
       </c>
-      <c r="G19" t="s">
-        <v>391</v>
-      </c>
       <c r="H19" t="s">
         <v>138</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -7005,10 +7008,10 @@
         <v>174</v>
       </c>
       <c r="F20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" t="s">
         <v>392</v>
-      </c>
-      <c r="G20" t="s">
-        <v>393</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -7037,7 +7040,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G21" t="s">
         <v>189</v>
@@ -7069,11 +7072,11 @@
         <v>173</v>
       </c>
       <c r="F22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22" t="s">
         <v>395</v>
       </c>
-      <c r="G22" t="s">
-        <v>396</v>
-      </c>
       <c r="H22" t="s">
         <v>138</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7093,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7122,7 +7125,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -7141,10 +7144,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -7160,7 +7163,7 @@
         <v>254</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -7170,7 +7173,7 @@
         <v>255</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -7190,7 +7193,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
@@ -7202,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7222,7 +7225,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G6" t="s">
         <v>191</v>
@@ -7234,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7254,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G7" t="s">
         <v>192</v>
@@ -7266,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7286,7 +7289,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G8" t="s">
         <v>193</v>
@@ -7298,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -7318,7 +7321,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" t="s">
         <v>194</v>
@@ -7330,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -7340,17 +7343,17 @@
         <v>255</v>
       </c>
       <c r="J10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -7370,7 +7373,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
         <v>195</v>
@@ -7382,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -7402,7 +7405,7 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G13" t="s">
         <v>235</v>
@@ -7414,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -7434,7 +7437,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G14" t="s">
         <v>206</v>
@@ -7446,33 +7449,33 @@
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="G16" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="H16" t="s">
         <v>254</v>
       </c>
       <c r="J16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -7482,7 +7485,7 @@
         <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -7502,7 +7505,7 @@
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G18" t="s">
         <v>198</v>
@@ -7514,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -7534,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
         <v>196</v>
@@ -7546,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -7566,7 +7569,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G20" t="s">
         <v>197</v>
@@ -7578,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -7598,7 +7601,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
         <v>199</v>
@@ -7610,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -7630,7 +7633,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" t="s">
         <v>200</v>
@@ -7642,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -7662,11 +7665,11 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" t="s">
         <v>410</v>
       </c>
-      <c r="G23" t="s">
-        <v>411</v>
-      </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -7684,17 +7687,17 @@
         <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -7714,7 +7717,7 @@
         <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
         <v>201</v>
@@ -7726,7 +7729,7 @@
         <v>0.01</v>
       </c>
       <c r="J26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -7746,7 +7749,7 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G27" t="s">
         <v>214</v>
@@ -7758,7 +7761,7 @@
         <v>0.01</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -7778,7 +7781,7 @@
         <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G28" t="s">
         <v>202</v>
@@ -7790,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -7810,7 +7813,7 @@
         <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G29" t="s">
         <v>207</v>
@@ -7822,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -7842,11 +7845,11 @@
         <v>176</v>
       </c>
       <c r="F30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
         <v>416</v>
       </c>
-      <c r="G30" t="s">
-        <v>417</v>
-      </c>
       <c r="H30" t="s">
         <v>138</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -7874,7 +7877,7 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G31" t="s">
         <v>204</v>
@@ -7886,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -7906,7 +7909,7 @@
         <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G32" t="s">
         <v>203</v>
@@ -7918,7 +7921,7 @@
         <v>0.01</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -7938,7 +7941,7 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G33" t="s">
         <v>205</v>
@@ -7950,7 +7953,7 @@
         <v>0.01</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7962,8 +7965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7991,7 +7994,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -8010,7 +8013,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
         <v>249</v>
@@ -8020,10 +8023,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" t="s">
         <v>254</v>
@@ -8059,10 +8062,10 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" t="s">
         <v>423</v>
-      </c>
-      <c r="G5" t="s">
-        <v>424</v>
       </c>
       <c r="H5" t="s">
         <v>138</v>
@@ -8091,7 +8094,7 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G6" t="s">
         <v>210</v>
@@ -8123,7 +8126,7 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G7" t="s">
         <v>211</v>
@@ -8155,7 +8158,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" t="s">
         <v>212</v>
@@ -8187,7 +8190,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" t="s">
         <v>213</v>
@@ -8216,7 +8219,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" t="s">
         <v>249</v>
@@ -8239,7 +8242,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G12" t="s">
         <v>216</v>
@@ -8271,7 +8274,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G13" t="s">
         <v>215</v>
@@ -8303,7 +8306,7 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G14" t="s">
         <v>221</v>
@@ -8322,7 +8325,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J15" t="s">
         <v>249</v>
@@ -8332,10 +8335,10 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
         <v>254</v>
@@ -8371,7 +8374,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G18" t="s">
         <v>222</v>
@@ -8403,7 +8406,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G19" t="s">
         <v>220</v>
@@ -8435,7 +8438,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G20" t="s">
         <v>219</v>
@@ -8467,7 +8470,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G21" t="s">
         <v>217</v>
@@ -8499,7 +8502,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G22" t="s">
         <v>218</v>
@@ -8528,7 +8531,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
         <v>249</v>
@@ -8551,7 +8554,7 @@
         <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G25" t="s">
         <v>208</v>
@@ -8583,7 +8586,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G26" t="s">
         <v>209</v>
@@ -8609,7 +8612,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8638,7 +8641,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -8670,7 +8673,7 @@
         <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G2" t="s">
         <v>223</v>
@@ -8682,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06417455-764A-4C7D-86E9-0B56CE35ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB983E39-DB2D-4E1D-A9A5-0C97F402633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="468">
   <si>
     <t>variable</t>
   </si>
@@ -1427,6 +1427,15 @@
   </si>
   <si>
     <t>Nuts/fruit yield model</t>
+  </si>
+  <si>
+    <t>tree_mortality_chance</t>
+  </si>
+  <si>
+    <t>Annual probability of tree mortality</t>
+  </si>
+  <si>
+    <t>Probability of a tree to die sometime before it can be harvested, making its wood to lose value</t>
   </si>
 </sst>
 </file>
@@ -3846,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7094,10 +7103,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7178,25 +7187,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
         <v>138</v>
@@ -7210,28 +7219,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7242,13 +7251,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -7257,10 +7266,10 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
         <v>140</v>
@@ -7274,28 +7283,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7306,10 +7315,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>18</v>
@@ -7321,10 +7330,10 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H9" t="s">
         <v>138</v>
@@ -7337,10 +7346,32 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>194</v>
+      </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>138</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>278</v>
@@ -7350,39 +7381,17 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" t="s">
-        <v>195</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="H12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="J12" t="s">
         <v>278</v>
@@ -7390,13 +7399,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -7405,10 +7414,10 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="H13" t="s">
         <v>138</v>
@@ -7453,26 +7462,42 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" t="s">
+        <v>467</v>
+      </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="F16" t="s">
-        <v>464</v>
-      </c>
-      <c r="G16" t="s">
-        <v>464</v>
-      </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J16" t="s">
         <v>280</v>
@@ -7481,69 +7506,53 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
+      <c r="F17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" t="s">
+        <v>464</v>
+      </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="H18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7554,13 +7563,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -7569,10 +7578,10 @@
         <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
         <v>140</v>
@@ -7586,28 +7595,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7618,13 +7627,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -7633,10 +7642,10 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -7650,13 +7659,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -7665,26 +7674,48 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
         <v>409</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>410</v>
       </c>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>138</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>280</v>
@@ -7694,53 +7725,31 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>411</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26">
-        <v>0.01</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.3</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.7</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
@@ -7749,10 +7758,10 @@
         <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G27" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
         <v>138</v>
@@ -7766,57 +7775,57 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
         <v>138</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
         <v>138</v>
@@ -7825,30 +7834,30 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G30" t="s">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
         <v>138</v>
@@ -7862,13 +7871,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>1300</v>
+        <v>320</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -7877,10 +7886,10 @@
         <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
@@ -7894,45 +7903,45 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>0.1</v>
+        <v>400</v>
       </c>
       <c r="C32" s="1">
-        <v>0.6</v>
+        <v>1300</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H32" t="s">
         <v>138</v>
       </c>
       <c r="I32">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1">
         <v>0.1</v>
       </c>
       <c r="C33" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D33" t="s">
         <v>91</v>
@@ -7941,10 +7950,10 @@
         <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
         <v>138</v>
@@ -7953,6 +7962,38 @@
         <v>0.01</v>
       </c>
       <c r="J33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34">
+        <v>0.01</v>
+      </c>
+      <c r="J34" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7965,7 +8006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB983E39-DB2D-4E1D-A9A5-0C97F402633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50B32E-216D-4831-9403-335652412C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -1429,13 +1429,13 @@
     <t>Nuts/fruit yield model</t>
   </si>
   <si>
-    <t>tree_mortality_chance</t>
-  </si>
-  <si>
     <t>Annual probability of tree mortality</t>
   </si>
   <si>
     <t>Probability of a tree to die sometime before it can be harvested, making its wood to lose value</t>
+  </si>
+  <si>
+    <t>tree_mortality_chance_t</t>
   </si>
 </sst>
 </file>
@@ -4036,7 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6380,7 +6380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
@@ -7106,7 +7106,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7463,12 +7463,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15">
+        <v>467</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.05</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.25</v>
       </c>
       <c r="D15" t="s">
@@ -7478,16 +7478,16 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
+        <v>465</v>
+      </c>
+      <c r="G15" t="s">
         <v>466</v>
       </c>
-      <c r="G15" t="s">
-        <v>467</v>
-      </c>
       <c r="H15" t="s">
         <v>138</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J15" t="s">
         <v>278</v>
@@ -8006,8 +8006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50B32E-216D-4831-9403-335652412C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C080712-54F1-4D6A-B5E4-D025D44EEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4086,10 +4086,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4739,7 +4739,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7105,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C080712-54F1-4D6A-B5E4-D025D44EEDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E4CFC-08D0-4541-9F98-45EFBF109197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -2411,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2593,7 +2593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3291,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3855,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4036,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4214,10 +4214,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -5521,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -6380,7 +6380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K22"/>
     </sheetView>
   </sheetViews>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E4CFC-08D0-4541-9F98-45EFBF109197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69EF1A-F279-47EC-8BAE-E95DCEFA7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -2411,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5521,7 +5521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjimenez\Documents\ReForest\Living Labs for Mitigating Climate Change in Agriculture\DualPurpose_Trees\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69EF1A-F279-47EC-8BAE-E95DCEFA7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826A9BA-35D4-485D-9C7F-296621A6C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="469">
   <si>
     <t>variable</t>
   </si>
@@ -1436,6 +1436,9 @@
   </si>
   <si>
     <t>tree_mortality_chance_t</t>
+  </si>
+  <si>
+    <t>Crop_rotation</t>
   </si>
 </sst>
 </file>
@@ -1933,48 +1936,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1990,7 +1993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2289,15 +2292,15 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -2409,22 +2412,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="94.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2455,8 +2459,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2552,7 +2559,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2591,20 +2598,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" customWidth="1"/>
-    <col min="6" max="6" width="80.1796875" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="80.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2635,8 +2642,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2700,7 +2710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
@@ -2710,7 +2720,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
@@ -2726,7 +2736,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="H6" t="s">
@@ -2736,7 +2746,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2762,13 +2772,13 @@
         <v>138</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -2793,11 +2803,14 @@
       <c r="H8" t="s">
         <v>138</v>
       </c>
+      <c r="I8">
+        <v>0.01</v>
+      </c>
       <c r="J8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -2822,11 +2835,14 @@
       <c r="H9" t="s">
         <v>138</v>
       </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
       <c r="J9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -2851,11 +2867,14 @@
       <c r="H10" t="s">
         <v>138</v>
       </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
       <c r="J10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
@@ -2865,7 +2884,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
@@ -2881,7 +2900,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="H13" t="s">
@@ -2891,7 +2910,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2981,13 +3000,13 @@
         <v>138</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3013,13 +3032,13 @@
         <v>138</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="J17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -3044,11 +3063,14 @@
       <c r="H18" t="s">
         <v>138</v>
       </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -3073,11 +3095,14 @@
       <c r="H19" t="s">
         <v>138</v>
       </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3109,7 +3134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -3141,7 +3166,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>148</v>
       </c>
@@ -3173,7 +3198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -3198,11 +3223,14 @@
       <c r="H23" t="s">
         <v>138</v>
       </c>
+      <c r="I23">
+        <v>0.01</v>
+      </c>
       <c r="J23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -3227,11 +3255,14 @@
       <c r="H24" t="s">
         <v>138</v>
       </c>
+      <c r="I24">
+        <v>0.01</v>
+      </c>
       <c r="J24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -3256,29 +3287,32 @@
       <c r="H25" t="s">
         <v>138</v>
       </c>
+      <c r="I25">
+        <v>1E-3</v>
+      </c>
       <c r="J25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="H27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
@@ -3289,20 +3323,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="52.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3333,8 +3367,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3366,483 +3403,483 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
@@ -3853,23 +3890,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="59.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3885,6 +3922,9 @@
       <c r="E1" t="s">
         <v>135</v>
       </c>
+      <c r="F1" t="s">
+        <v>286</v>
+      </c>
       <c r="G1" t="s">
         <v>136</v>
       </c>
@@ -3897,8 +3937,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3930,7 +3973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3962,7 +4005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3994,7 +4037,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4034,22 +4077,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06826C72-96B8-4DB0-B8A1-5FBF5F35F3F2}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="73.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4080,8 +4123,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4113,7 +4159,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4145,7 +4191,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4177,7 +4223,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4209,7 +4255,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4241,7 +4287,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4273,459 +4319,459 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -4739,17 +4785,17 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4780,8 +4826,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4813,7 +4862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4846,7 +4895,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4878,7 +4927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4910,455 +4959,455 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -5369,22 +5418,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF733DD-E084-451A-AEBD-87D8A1F2D1F6}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="128.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="128.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5415,8 +5466,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5448,7 +5502,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5480,7 +5534,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5519,23 +5573,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="63.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5566,8 +5620,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5599,7 +5656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5631,7 +5688,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -5663,7 +5720,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -5695,7 +5752,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -5727,7 +5784,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5759,7 +5816,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -5791,7 +5848,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5823,7 +5880,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5855,7 +5912,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5887,7 +5944,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5919,7 +5976,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5945,13 +6002,13 @@
         <v>138</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5983,7 +6040,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6015,7 +6072,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6047,7 +6104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6079,7 +6136,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6111,7 +6168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -6143,7 +6200,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -6175,7 +6232,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6207,7 +6264,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6239,7 +6296,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -6271,7 +6328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -6303,7 +6360,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -6335,7 +6392,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -6367,7 +6424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -6378,21 +6435,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6423,8 +6481,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -6456,7 +6517,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -6488,7 +6549,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -6520,7 +6581,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -6552,7 +6613,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6584,7 +6645,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6616,7 +6677,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -6648,7 +6709,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -6680,7 +6741,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -6712,7 +6773,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -6744,7 +6805,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6776,7 +6837,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6808,7 +6869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -6840,7 +6901,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6872,7 +6933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6904,7 +6965,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6936,7 +6997,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6968,7 +7029,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -7000,7 +7061,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -7032,7 +7093,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -7064,7 +7125,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -7103,21 +7164,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B46F03-BBFE-4EF0-AFCA-0F4C3592A7D1}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="107.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="107.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7148,8 +7209,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
@@ -7159,7 +7223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
@@ -7175,7 +7239,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
@@ -7185,7 +7249,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -7217,7 +7281,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -7249,7 +7313,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -7281,7 +7345,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -7313,7 +7377,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -7345,7 +7409,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -7377,7 +7441,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
@@ -7387,7 +7451,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="H12" t="s">
@@ -7397,7 +7461,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -7429,7 +7493,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -7461,7 +7525,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>467</v>
       </c>
@@ -7493,7 +7557,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="H16" t="s">
@@ -7503,7 +7567,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" t="s">
@@ -7519,7 +7583,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="H18" t="s">
@@ -7529,7 +7593,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -7561,7 +7625,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -7593,7 +7657,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -7625,7 +7689,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -7657,7 +7721,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -7689,7 +7753,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -7721,7 +7785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
@@ -7731,7 +7795,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
@@ -7741,7 +7805,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -7773,7 +7837,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -7805,7 +7869,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -7837,7 +7901,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7869,7 +7933,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -7901,7 +7965,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -7933,7 +7997,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7965,7 +8029,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -8004,21 +8068,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD55CD1-0195-43C4-85D0-979B3B5F4C61}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="77.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="77.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8049,8 +8113,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
@@ -8060,7 +8127,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
@@ -8076,7 +8143,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
@@ -8086,7 +8153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -8118,7 +8185,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -8150,7 +8217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -8182,7 +8249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -8214,7 +8281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -8246,7 +8313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="H10" t="s">
@@ -8256,7 +8323,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
@@ -8266,7 +8333,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -8298,7 +8365,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -8330,7 +8397,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -8362,7 +8429,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
@@ -8372,7 +8439,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
@@ -8388,7 +8455,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" t="s">
@@ -8398,7 +8465,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -8430,7 +8497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -8462,7 +8529,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -8494,7 +8561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -8526,7 +8593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -8558,7 +8625,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="H23" t="s">
@@ -8568,7 +8635,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
@@ -8578,7 +8645,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -8610,7 +8677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -8650,22 +8717,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18C2264-89B4-41CF-A7EB-F2121007945D}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="47.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8696,8 +8763,11 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgium_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\REFOREST\Project_report\Deliverables\D4.3_Model_Comparison\Walnut_Agroforestry\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826A9BA-35D4-485D-9C7F-296621A6C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AF35F-D550-48BE-A060-7109D074674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -22,17 +22,16 @@
     <sheet name="Sheet7" sheetId="13" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="4" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="2" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="9" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="3" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet12" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet13" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="459">
   <si>
     <t>variable</t>
   </si>
@@ -205,21 +204,9 @@
     <t>AF1_system_crop_rotation_1_c</t>
   </si>
   <si>
-    <t>AF1_total_annual_funding_c</t>
-  </si>
-  <si>
-    <t>AF1_total_one_time_funding_c</t>
-  </si>
-  <si>
-    <t>AF1_percentage_values_c</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
-    <t>selected_percentage_c</t>
-  </si>
-  <si>
     <t>leek_management_p</t>
   </si>
   <si>
@@ -541,9 +528,6 @@
     <t>Consulting services costs</t>
   </si>
   <si>
-    <t>Funding (from external sources)</t>
-  </si>
-  <si>
     <t>Price of carbon certificates</t>
   </si>
   <si>
@@ -706,18 +690,6 @@
     <t>Total payment to hire consulting/planning services [€]</t>
   </si>
   <si>
-    <t>Percentage investment funded: Funds received only once from external sources, as a proportion of the investment cost [ratio]</t>
-  </si>
-  <si>
-    <t>Shall "Percentage investment funded" be applied?</t>
-  </si>
-  <si>
-    <t>Establishment funding support: Lump sum of funds received only once from external sources, regardless of the investment costs [€]</t>
-  </si>
-  <si>
-    <t>Annual maintenance support: Lump sum of funds received annually from external sources in order to maintain the agroforestry system [€]</t>
-  </si>
-  <si>
     <t>Mean annual soil loss due to water erosion [t/ha]</t>
   </si>
   <si>
@@ -844,9 +816,6 @@
     <t>person-chalkboard</t>
   </si>
   <si>
-    <t>check-double</t>
-  </si>
-  <si>
     <t>atom</t>
   </si>
   <si>
@@ -883,9 +852,6 @@
     <t>Silviculture;Market analysis;Agroforestry farming</t>
   </si>
   <si>
-    <t>Policy analysis;Agroforestry farming</t>
-  </si>
-  <si>
     <t>Market analysis;Policy analysis</t>
   </si>
   <si>
@@ -1345,18 +1311,6 @@
     <t>Consultancy costs</t>
   </si>
   <si>
-    <t>Maintenance support</t>
-  </si>
-  <si>
-    <t>Establishment support as a percentage of total investment costs?</t>
-  </si>
-  <si>
-    <t>Establishment support (as a percentage of total investment costs)</t>
-  </si>
-  <si>
-    <t>Establishment support (independent of total investment costs)</t>
-  </si>
-  <si>
     <t>Wood density</t>
   </si>
   <si>
@@ -1439,6 +1393,21 @@
   </si>
   <si>
     <t>Crop_rotation</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Length of tree row [m]</t>
+  </si>
+  <si>
+    <t>Avergae length of tree rows</t>
+  </si>
+  <si>
+    <t>AF1_tree_row_length_c</t>
+  </si>
+  <si>
+    <t>AF1_hedgerow_row_length_c</t>
   </si>
 </sst>
 </file>
@@ -1936,48 +1905,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1993,9 +1962,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2033,7 +2002,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2139,7 +2108,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2281,7 +2250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2289,119 +2258,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B894F3-1BBC-4877-818A-ECEC60560258}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2411,192 +2372,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E807E7F-DCAE-400C-B9F4-3C0EDF692711}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="94.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1">
-        <v>378</v>
-      </c>
-      <c r="C2" s="1">
-        <v>378</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>440</v>
-      </c>
-      <c r="G5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724F1830-3430-4657-920D-E95506196AA8}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -2604,14 +2379,14 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="80.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="6" max="6" width="80.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2625,30 +2400,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>0.56999999999999995</v>
@@ -2660,27 +2435,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="G2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <v>0.45</v>
@@ -2692,63 +2467,63 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1">
         <v>0.12</v>
@@ -2760,27 +2535,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>1E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1">
         <v>0.5</v>
@@ -2792,27 +2567,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2824,27 +2599,27 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>0.1</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1">
         <v>-6</v>
@@ -2853,66 +2628,66 @@
         <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>0.1</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1">
         <v>40</v>
@@ -2927,24 +2702,24 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1">
         <v>60</v>
@@ -2959,24 +2734,24 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1">
         <v>0.02</v>
@@ -2988,27 +2763,27 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I16">
         <v>1E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1">
         <v>5.0000000000000001E-3</v>
@@ -3020,27 +2795,27 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <v>1E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1">
         <v>30</v>
@@ -3052,27 +2827,27 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G18" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -3084,27 +2859,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G19" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -3116,27 +2891,27 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I20">
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1">
         <v>0.1</v>
@@ -3145,30 +2920,30 @@
         <v>0.7</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>1E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1">
         <v>0.5</v>
@@ -3180,27 +2955,27 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I22">
         <v>1E-3</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
         <v>0.02</v>
@@ -3212,27 +2987,27 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23">
         <v>0.01</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -3247,24 +3022,24 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I24">
         <v>0.01</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1">
         <v>0.05</v>
@@ -3273,48 +3048,615 @@
         <v>0.95</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="G25" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I25">
         <v>1E-3</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="H27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
+  <dimension ref="A1:K122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3322,573 +3664,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
-  <dimension ref="A1:K122"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AACA546-DF26-443B-AA33-3E83721C2724}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3896,17 +3671,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3920,28 +3695,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3958,22 +3733,22 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3990,24 +3765,24 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -4019,27 +3794,27 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -4051,22 +3826,22 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4083,16 +3858,16 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="73.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="73.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4106,28 +3881,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4144,22 +3919,22 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4176,22 +3951,22 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4208,22 +3983,22 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4240,22 +4015,22 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4272,22 +4047,22 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4304,474 +4079,474 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
@@ -4785,17 +4560,17 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="68.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4809,28 +4584,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4847,22 +4622,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4879,23 +4654,23 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I3">
         <v>1E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4912,502 +4687,558 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>457</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5">
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6">
         <v>1E-3</v>
       </c>
-      <c r="J5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
@@ -5424,18 +5255,18 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="128.85546875" customWidth="1"/>
-    <col min="7" max="7" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="128.88671875" customWidth="1"/>
+    <col min="7" max="7" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5449,28 +5280,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5484,25 +5315,25 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5516,25 +5347,25 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5548,22 +5379,22 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5579,17 +5410,17 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5603,28 +5434,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5638,27 +5469,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5670,27 +5501,27 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5702,27 +5533,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>31</v>
@@ -5734,27 +5565,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -5766,27 +5597,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
         <v>54</v>
@@ -5798,27 +5629,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -5830,27 +5661,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>14</v>
@@ -5862,25 +5693,25 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -5894,25 +5725,25 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>1E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5929,22 +5760,22 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5958,25 +5789,25 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -5993,22 +5824,22 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13">
         <v>1E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -6025,22 +5856,22 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>0.01</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6057,22 +5888,22 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G15" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6089,22 +5920,22 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6118,25 +5949,25 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <v>1E-3</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6153,22 +5984,22 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>1E-3</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -6185,24 +6016,24 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>1E-3</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>0.05</v>
@@ -6214,27 +6045,27 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I20">
         <v>1E-3</v>
       </c>
       <c r="J20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1">
         <v>2.5000000000000001E-2</v>
@@ -6249,24 +6080,24 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>1E-4</v>
       </c>
       <c r="J21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -6281,24 +6112,24 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22">
         <v>0.01</v>
       </c>
       <c r="J22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1">
         <v>60</v>
@@ -6310,27 +6141,27 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G23" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1">
         <v>90</v>
@@ -6342,27 +6173,27 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G24" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -6377,24 +6208,24 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G25" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1">
         <v>0.05</v>
@@ -6403,28 +6234,28 @@
         <v>0.95</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G26" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I26">
         <v>1E-3</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
@@ -6437,20 +6268,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D7C64-12CB-4A85-A4CD-D098869794C1}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6464,30 +6295,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>400</v>
@@ -6499,25 +6330,25 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -6534,22 +6365,22 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -6563,27 +6394,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>2000</v>
@@ -6595,25 +6426,25 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6630,22 +6461,22 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6659,27 +6490,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>71</v>
@@ -6691,25 +6522,25 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G8" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -6726,22 +6557,22 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -6755,27 +6586,27 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G10" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1">
         <v>3700</v>
@@ -6787,25 +6618,25 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6822,22 +6653,22 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G12" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6851,27 +6682,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1">
         <v>100</v>
@@ -6883,25 +6714,25 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6918,22 +6749,22 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -6947,27 +6778,27 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G16" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
         <v>800</v>
@@ -6979,25 +6810,25 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -7014,22 +6845,22 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -7043,27 +6874,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
         <v>473.7</v>
@@ -7075,25 +6906,25 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G20" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I20">
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -7110,22 +6941,22 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -7139,22 +6970,22 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G22" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7170,15 +7001,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="107.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="107.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7192,66 +7023,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -7263,27 +7094,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
@@ -7295,27 +7126,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -7327,27 +7158,27 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
@@ -7359,27 +7190,27 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -7394,24 +7225,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -7426,44 +7257,44 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -7475,27 +7306,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1">
         <v>0.09</v>
@@ -7507,27 +7338,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B15" s="1">
         <v>0.05</v>
@@ -7536,66 +7367,66 @@
         <v>0.25</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="G15" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1E-3</v>
       </c>
       <c r="J15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G17" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
@@ -7607,27 +7438,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -7639,27 +7470,27 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -7671,27 +7502,27 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -7706,24 +7537,24 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1">
         <v>40</v>
@@ -7738,24 +7569,24 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -7770,44 +7601,44 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
@@ -7816,30 +7647,30 @@
         <v>0.3</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>0.01</v>
       </c>
       <c r="J27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1">
         <v>0.3</v>
@@ -7848,30 +7679,30 @@
         <v>0.7</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I28">
         <v>0.01</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -7883,27 +7714,27 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1">
         <v>20</v>
@@ -7915,27 +7746,27 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
         <v>70</v>
@@ -7947,27 +7778,27 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G31" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1">
         <v>400</v>
@@ -7979,27 +7810,27 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1">
         <v>0.1</v>
@@ -8008,30 +7839,30 @@
         <v>0.6</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I33">
         <v>0.01</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1">
         <v>0.1</v>
@@ -8040,25 +7871,25 @@
         <v>0.9</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I34">
         <v>0.01</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -8074,15 +7905,15 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="77.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="77.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8096,66 +7927,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1">
         <v>0.15</v>
@@ -8167,27 +7998,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>1E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -8202,24 +8033,24 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -8234,24 +8065,24 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -8266,24 +8097,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1">
         <v>40</v>
@@ -8298,44 +8129,44 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
@@ -8344,30 +8175,30 @@
         <v>0.3</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>0.01</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1">
         <v>0.01</v>
@@ -8379,27 +8210,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13">
         <v>1E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1">
         <v>0.25</v>
@@ -8408,66 +8239,66 @@
         <v>0.95</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1">
         <v>0.1</v>
@@ -8476,30 +8307,30 @@
         <v>0.9</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G18" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -8511,27 +8342,27 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1">
         <v>10</v>
@@ -8543,27 +8374,27 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -8578,24 +8409,24 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -8610,44 +8441,44 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1">
         <v>0.1</v>
@@ -8659,27 +8490,27 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I25">
         <v>0.01</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
@@ -8694,19 +8525,19 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8720,19 +8551,19 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8746,28 +8577,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8781,22 +8612,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/Walnut_grain_veg_tub.xlsx
+++ b/data/Walnut_grain_veg_tub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajna\Documents\HORTIBONN\PROJECTS\REFOREST\Project_report\Deliverables\D4.3_Model_Comparison\Walnut_Agroforestry\belgium_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3AF35F-D550-48BE-A060-7109D074674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B94DD-DEB0-44F7-85D1-AC13057B990F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_names" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="468">
   <si>
     <t>variable</t>
   </si>
@@ -111,9 +111,6 @@
     <t>planning_consulting_p</t>
   </si>
   <si>
-    <t>subsidy_application_p</t>
-  </si>
-  <si>
     <t>woody_strip_field_prep_p</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>h/ha/year</t>
   </si>
   <si>
-    <t>h/year</t>
-  </si>
-  <si>
     <t>Marketable maize yield [t/ha]</t>
   </si>
   <si>
@@ -996,12 +990,6 @@
     <t>Time spent on planning and designing the agroforestry system</t>
   </si>
   <si>
-    <t>Worker-hours - Bureaucratic requirements [h/year]</t>
-  </si>
-  <si>
-    <t>Time spent on fullfilling agroforestry-specific bureaucratic processes</t>
-  </si>
-  <si>
     <t>Worker-hours - Field preparation [h/ha]</t>
   </si>
   <si>
@@ -1408,6 +1396,45 @@
   </si>
   <si>
     <t>AF1_hedgerow_row_length_c</t>
+  </si>
+  <si>
+    <t>application_time_annual_support_p</t>
+  </si>
+  <si>
+    <t>hours/year</t>
+  </si>
+  <si>
+    <t>hours spent every year on applying for subsidies</t>
+  </si>
+  <si>
+    <t>trend_application_time_annual_support_p</t>
+  </si>
+  <si>
+    <t>min_application_time_annual_support_t</t>
+  </si>
+  <si>
+    <t>investment_support_time_p</t>
+  </si>
+  <si>
+    <t>hours per year</t>
+  </si>
+  <si>
+    <t>value added to es3_application_time to compute the total time spent on applying for financial support during the establishment year (only applicable in case of applying for investment support)</t>
+  </si>
+  <si>
+    <t>Relative trend of application time</t>
+  </si>
+  <si>
+    <t>Hours spent on applying for investment support</t>
+  </si>
+  <si>
+    <t>Hours spent on applying for annual financial support (only first year)</t>
+  </si>
+  <si>
+    <t>Ratio of re-application time to the first application made</t>
+  </si>
+  <si>
+    <t>ratio of application_time_annual_support_p used to calculate the minimum time spent on applying for annual maintenance support, reached once the application is most efficiently</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2288,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,98 +2298,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2400,30 +2427,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
         <v>0.56999999999999995</v>
@@ -2435,27 +2462,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1">
         <v>0.45</v>
@@ -2467,63 +2494,63 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
         <v>0.12</v>
@@ -2535,27 +2562,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>1E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1">
         <v>0.5</v>
@@ -2567,27 +2594,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2599,27 +2626,27 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>0.1</v>
       </c>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1">
         <v>-6</v>
@@ -2628,66 +2655,66 @@
         <v>-4</v>
       </c>
       <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
         <v>105</v>
       </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
       <c r="F10" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>0.1</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1">
         <v>40</v>
@@ -2699,27 +2726,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1">
         <v>60</v>
@@ -2731,27 +2758,27 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1">
         <v>0.02</v>
@@ -2763,27 +2790,27 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>1E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
         <v>5.0000000000000001E-3</v>
@@ -2795,27 +2822,27 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17">
         <v>1E-4</v>
       </c>
       <c r="J17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
         <v>30</v>
@@ -2827,27 +2854,27 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -2859,27 +2886,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2891,27 +2918,27 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20">
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1">
         <v>0.1</v>
@@ -2920,30 +2947,30 @@
         <v>0.7</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>1E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1">
         <v>0.5</v>
@@ -2955,27 +2982,27 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22">
         <v>1E-3</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1">
         <v>0.02</v>
@@ -2987,27 +3014,27 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23">
         <v>0.01</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -3022,24 +3049,24 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24">
         <v>0.01</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1">
         <v>0.05</v>
@@ -3048,39 +3075,39 @@
         <v>0.95</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25">
         <v>1E-3</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3100,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2682F285-7B44-4D8F-A7EA-4445FB570320}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3125,30 +3152,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -3160,22 +3187,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3695,30 +3722,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
         <v>0.1</v>
@@ -3730,27 +3757,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
@@ -3762,27 +3789,27 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3794,27 +3821,27 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3826,22 +3853,22 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3881,25 +3908,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3919,19 +3946,19 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3951,24 +3978,24 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3980,27 +4007,27 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -4012,22 +4039,22 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4047,19 +4074,19 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4079,19 +4106,19 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4584,25 +4611,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4622,19 +4649,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2">
         <v>0.01</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4654,19 +4681,19 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3">
         <v>1E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -4687,24 +4714,24 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B5" s="1">
         <v>1E-3</v>
@@ -4716,22 +4743,22 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5">
         <v>1.0009999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4751,24 +4778,24 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>1E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B7" s="1">
         <v>1E-3</v>
@@ -4780,22 +4807,22 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7">
         <v>1.0009999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5280,25 +5307,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5315,22 +5342,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5347,22 +5374,22 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5379,22 +5406,22 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5404,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4214A-8AE9-4396-ABE5-C95E3D310602}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5434,25 +5461,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5469,27 +5496,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5501,27 +5528,27 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5533,27 +5560,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>31</v>
@@ -5565,27 +5592,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -5597,27 +5624,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>54</v>
@@ -5629,27 +5656,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -5661,27 +5688,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1">
         <v>14</v>
@@ -5693,27 +5720,27 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>1.05</v>
@@ -5725,22 +5752,22 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>1E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5760,506 +5787,600 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
+        <v>455</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.76</v>
+        <v>460</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.1000000000000001</v>
+        <v>458</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" t="s">
-        <v>326</v>
+        <v>463</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>24</v>
+        <v>459</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="G15" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>0.76</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="1">
-        <v>1.51</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>0.15</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="C20" s="1">
-        <v>0.11</v>
+        <v>1.51</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20">
         <v>1E-3</v>
       </c>
       <c r="J20" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C21" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J21" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>0.05</v>
       </c>
       <c r="C23" s="1">
-        <v>400</v>
+        <v>0.11</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1">
-        <v>90</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>600</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="J24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G25" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>400</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1">
+        <v>600</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="1">
         <v>0.05</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C29" s="1">
         <v>0.95</v>
       </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>349</v>
-      </c>
-      <c r="G26" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" t="s">
+        <v>346</v>
+      </c>
+      <c r="H29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29">
         <v>1E-3</v>
       </c>
-      <c r="J26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6295,30 +6416,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>400</v>
@@ -6330,27 +6451,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -6362,27 +6483,27 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>141</v>
@@ -6394,27 +6515,27 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1">
         <v>2000</v>
@@ -6426,27 +6547,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -6458,27 +6579,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>55</v>
@@ -6490,27 +6611,27 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1">
         <v>71</v>
@@ -6522,27 +6643,27 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>30</v>
@@ -6554,27 +6675,27 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>690</v>
@@ -6586,27 +6707,27 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>3700</v>
@@ -6618,27 +6739,27 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
@@ -6650,27 +6771,27 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>25</v>
@@ -6682,27 +6803,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1">
         <v>100</v>
@@ -6714,27 +6835,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
@@ -6746,27 +6867,27 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>160</v>
@@ -6778,27 +6899,27 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G16" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>800</v>
@@ -6810,27 +6931,27 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>2.5</v>
@@ -6842,27 +6963,27 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>190</v>
@@ -6874,27 +6995,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>473.7</v>
@@ -6906,27 +7027,27 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20">
         <v>0.01</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>21</v>
@@ -6938,27 +7059,27 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>440</v>
@@ -6970,22 +7091,22 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6998,7 +7119,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7023,66 +7144,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -7094,27 +7215,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
@@ -7126,27 +7247,27 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -7158,27 +7279,27 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
@@ -7190,27 +7311,27 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -7225,24 +7346,24 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -7257,44 +7378,44 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -7306,27 +7427,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>0.09</v>
@@ -7338,27 +7459,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14">
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B15" s="1">
         <v>0.05</v>
@@ -7367,66 +7488,66 @@
         <v>0.25</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15">
         <v>1E-3</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="F17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
@@ -7438,27 +7559,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -7470,27 +7591,27 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <v>12</v>
@@ -7502,27 +7623,27 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -7537,24 +7658,24 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>40</v>
@@ -7569,24 +7690,24 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -7601,44 +7722,44 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
@@ -7647,30 +7768,30 @@
         <v>0.3</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27">
         <v>0.01</v>
       </c>
       <c r="J27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1">
         <v>0.3</v>
@@ -7679,30 +7800,30 @@
         <v>0.7</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28">
         <v>0.01</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -7714,27 +7835,27 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
         <v>20</v>
@@ -7746,27 +7867,27 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1">
         <v>70</v>
@@ -7778,27 +7899,27 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>400</v>
@@ -7810,27 +7931,27 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1">
         <v>0.1</v>
@@ -7839,30 +7960,30 @@
         <v>0.6</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33">
         <v>0.01</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1">
         <v>0.1</v>
@@ -7871,25 +7992,25 @@
         <v>0.9</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34">
         <v>0.01</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7927,66 +8048,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1">
         <v>0.15</v>
@@ -7998,27 +8119,27 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -8030,27 +8151,27 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -8062,27 +8183,27 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -8097,24 +8218,24 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1">
         <v>40</v>
@@ -8129,44 +8250,44 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1">
         <v>0.1</v>
@@ -8175,30 +8296,30 @@
         <v>0.3</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12">
         <v>0.01</v>
       </c>
       <c r="J12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1">
         <v>0.01</v>
@@ -8210,27 +8331,27 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13">
         <v>1E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1">
         <v>0.25</v>
@@ -8239,66 +8360,66 @@
         <v>0.95</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14">
         <v>1E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1">
         <v>0.1</v>
@@ -8307,30 +8428,30 @@
         <v>0.9</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18">
         <v>0.01</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -8342,27 +8463,27 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="1">
         <v>10</v>
@@ -8374,27 +8495,27 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -8409,24 +8530,24 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -8441,44 +8562,44 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1">
         <v>0.1</v>
@@ -8490,27 +8611,27 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25">
         <v>0.01</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
@@ -8522,22 +8643,22 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8577,25 +8698,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -8612,22 +8733,22 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
